--- a/excel/망원_processed.xlsx
+++ b/excel/망원_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>세이슈</t>
+          <t>해금도</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,29 +483,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 54-5 2층</t>
+          <t>서울 마포구 망원로 63 1층</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1352-4083</t>
+          <t>02-336-7656</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>해금도</t>
+          <t>트릴토리</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 63 1층</t>
+          <t>서울 마포구 망원로7길 54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'})]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02-336-7656</t>
+          <t>010-4939-7496</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>복덕방내추럴막걸리집</t>
+          <t>정주일가</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -574,29 +574,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5</t>
+          <t>서울 마포구 포은로 66 1층 정주일가</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>070-8864-1414</t>
+          <t>0507-1396-4083</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>정주일가</t>
+          <t>복덕방내추럴막걸리집</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5</t>
+          <t>서울 마포구 포은로8길 5 1층</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>070-8864-1414</t>
+          <t>0507-1362-7637</t>
         </is>
       </c>
     </row>
@@ -702,22 +702,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5</t>
+          <t>서울 마포구 포은로 73 1층</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>070-8864-1414</t>
+          <t>0507-1308-6389</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5</t>
+          <t>서울 마포구 포은로 109 102호</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>070-8864-1414</t>
+          <t>02-322-5545</t>
         </is>
       </c>
     </row>
@@ -766,29 +766,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5</t>
+          <t>서울 마포구 포은로 109 102호</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>070-8864-1414</t>
+          <t>02-322-5545</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>세이슈</t>
+          <t>나나</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,44 +798,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 포은로 109 102호</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>02-322-5545</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>해금도</t>
+          <t>망원 그곳</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 포은로 109 102호</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,14 +845,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>02-322-5545</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>서교주담 망원</t>
+          <t>리파인 망원</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -862,108 +862,108 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 포은로 109 102호</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>02-322-5545</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>복덕방내추럴막걸리집</t>
+          <t>트릴로지</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 방울내로11길 26 101호</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1373-1799</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>정주일가</t>
+          <t>꿩먹고알먹고</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>너랑나랑호프</t>
+          <t>월명식당</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,14 +973,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>미자카야</t>
+          <t>세이슈</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,29 +990,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>웅장</t>
+          <t>살쾡이</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,76 +1022,76 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 73 1층</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0507-1308-6389</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>구운</t>
+          <t>휴식당</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 109 102호</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02-322-5545</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>화월</t>
+          <t>PNPV</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 109 102호</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,61 +1101,61 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02-322-5545</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>아마</t>
+          <t>트릴토리</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>시장맥주</t>
+          <t>망원양화</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>리틀스탠드레몽</t>
+          <t>슌우</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1182,29 +1182,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>선술집 순</t>
+          <t>철길부산집 망원점</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1229,61 +1229,61 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>역전할머니맥주 망원점</t>
+          <t>호아</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>아루감</t>
+          <t>오비비어</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1293,46 +1293,46 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>루바토와인</t>
+          <t>한지</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>홍타하우스</t>
+          <t>해진뒤</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1357,61 +1357,61 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>살롱드낭만</t>
+          <t>오복수산시장</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>부산본가</t>
+          <t>하이에나</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,285 +1421,285 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>비어트립</t>
+          <t>주로</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Slow Supper Club</t>
+          <t>녹턴사카바</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 동교로 37</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>02-336-0710</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>만나포차</t>
+          <t>노스터</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 동교로 37</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>02-336-0710</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>리와인드</t>
+          <t>프로그</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 동교로 37</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>02-336-0710</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>뚱이네포차스트렁큰</t>
+          <t>호랑이 라운지</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 동교로 37</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>02-336-0710</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>망원술집</t>
+          <t>공작</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 동교로 37</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>02-336-0710</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>글렌</t>
+          <t>꼬치주간</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>오뎅,꼬치</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 동교로 37</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>0507-1344-9599</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>노가리랑 닭발</t>
+          <t>단바 서울</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 포은로 70-1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>0507-1344-9599</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>한잔두잔</t>
+          <t>나이트엔데이</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 133 1층</t>
+          <t>서울 마포구 포은로 70-1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1709,46 +1709,46 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0507-1327-7320</t>
+          <t>0507-1344-9599</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>머니뭐니</t>
+          <t>시러스</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 37</t>
+          <t>서울 마포구 포은로 70-1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02-325-5955</t>
+          <t>0507-1344-9599</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>낮달</t>
+          <t>선술집 위군</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1758,93 +1758,93 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37 2층</t>
+          <t>서울 마포구 포은로 70-1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1344-9599</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>몽주막</t>
+          <t>망원엣지 망리단길점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 포은로 70-1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1344-9599</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>금강산호프</t>
+          <t>슌우</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 포은로 63 1층</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1377-5285</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>가로수포차</t>
+          <t>로바타 우직</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1854,125 +1854,125 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 포은로 86-1 1층</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1373-7481</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>합정유리</t>
+          <t>철길부산집 망원점</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1378-8642</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>사람사는이야기442</t>
+          <t>사토</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 희우정로16길 53 1층</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1346-1630</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>모양</t>
+          <t>갑</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 월드컵로19길 8 지하1층</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>010-3838-6160</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>과일가게</t>
+          <t>해금도</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1982,12 +1982,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 월드컵로19길 8 지하1층</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1997,71 +1997,6727 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>010-3838-6160</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>지하102호 2호점</t>
+          <t>위드바틀</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 21:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1459-6040</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>뱃놀이</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0507-1459-6040</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>망원연속체</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 55 2층</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0507-1394-3845</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>주에뉘</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로15길 17 1층 주에뉘</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'})]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0507-1378-2383</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>망원도</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0507-1423-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>케그샵 프리미엄수제맥주&amp;전통주 셀렉샵 망원한강점</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0507-1423-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>해금도</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로 63 1층</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>02-336-7656</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>트릴토리</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로7길 54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'})]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>010-4939-7496</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>서교주담 망원</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 82 1층</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>010-2633-7974</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>정주일가</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 66 1층 정주일가</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0507-1396-4083</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>복덕방내추럴막걸리집</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로8길 5</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>070-8864-1414</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>너랑나랑호프</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로8길 5</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>070-8864-1414</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>미자카야</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로8길 5 1층</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0507-1362-7637</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>웅장</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 73 1층</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0507-1308-6389</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>구운</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 109 102호</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>02-322-5545</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>화월</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 109 102호</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>02-322-5545</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>나나</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로20길 75 1층 나나</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0507-1348-3237</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>망원 그곳</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로20길 75 1층 나나</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0507-1348-3237</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>리파인 망원</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 63 형섭빌딩 2층</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0507-1346-3024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>트릴로지</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로11길 26 101호</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0507-1373-1799</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>꿩먹고알먹고</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로11길 6 2층</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0507-1307-8305</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>월명식당</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로11길 6 2층</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0507-1307-8305</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>세이슈</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로16길 54-5 2층</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0507-1352-4083</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>살쾡이</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 86-1 1층 103호(망원동)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0507-1358-5632</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>휴식당</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 43-1 1층 매장전화 부재시 01046342896</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0507-1355-2896</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PNPV</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 63 3층</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0507-1380-6667</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>트릴토리</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로7길 54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'})]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>010-4939-7496</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>망원양화</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 33-3 1층 망원양화</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0507-1354-4130</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>슌우</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 63 1층</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0507-1377-5285</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>철길부산집 망원점</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0507-1378-8642</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>호아</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로16길 17 지층</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0507-1307-5938</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>오비비어</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로29길 7</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0507-1339-6338</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>한지</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 97-1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>02-6082-2341</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>해진뒤</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로23길 20 2층</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0507-1372-2320</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>오복수산시장</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로23길 20 2층</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0507-1372-2320</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>하이에나</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로19길 12 2층</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>070-4042-1536</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>주로</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로19길 12 2층</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:30 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:30 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0507-1355-1575</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>녹턴사카바</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 37</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>02-336-0710</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>노스터</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>02-336-0710</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>프로그</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0507-1328-4360</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>호랑이 라운지</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 61</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0507-1328-4360</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>공작</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로12길 23 1층 101호</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0507-1422-0227</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>꼬치주간</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로12길 23 1층 101호</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0507-1422-0227</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>단바 서울</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로2길 87 1층</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('수', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('목', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('금', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('토', {'open_time': '14:00 - 05:00', 'last_order_time': '04:00'}), ('일', {'open_time': '14:00 - 05:00', 'last_order_time': '04:00'})]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0507-1351-4149</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>나이트엔데이</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로2길 87 1층</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0507-1351-4149</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>시러스</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로9길 56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0507-1316-1130</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>선술집 위군</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 74 1층</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>02-6083-5628</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>망원엣지 망리단길점</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 74 1층</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>02-6083-5628</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>슌우</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 63 1층</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0507-1377-5285</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>로바타 우직</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 86-1 1층</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'})]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0507-1373-7481</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>철길부산집 망원점</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0507-1378-8642</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>사토</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로16길 53 1층</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0507-1346-1630</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>갑</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로19길 8 지하1층</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>010-3838-6160</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>해금도</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로19길 8 지하1층</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>010-3838-6160</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>위드바틀</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 21:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0507-1459-6040</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>뱃놀이</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0507-1459-6040</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>망원연속체</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 55 2층</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0507-1394-3845</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>주에뉘</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로15길 17 1층 주에뉘</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'})]</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0507-1378-2383</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>망원도</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 75</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0507-1423-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>케그샵 프리미엄수제맥주&amp;전통주 셀렉샵 망원한강점</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 75</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0507-1423-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>아마</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0507-1310-2620</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>아루감</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0507-1310-2620</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>시장맥주</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로13길 60 2층</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0507-1319-2841</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>리틀스탠드레몽</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로13길 60 2층</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0507-1319-2841</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>선술집 순</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로15길 40 선술집 순</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'}), ('목', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'}), ('금', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'}), ('토', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'}), ('일', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'})]</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0507-1389-4045</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>역전할머니맥주 망원점</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로9길 51</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 05:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 05:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>02-332-1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>루바토와인</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로9길 51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>02-332-1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>살롱드낭만</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0507-1337-8684</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>홍타하우스</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0507-1337-8684</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>부산본가</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로 7-1</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>010-8461-6611</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>코멘터리사운드 와인샵 &amp; 와인바</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로 7-1</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>010-8461-6611</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>반주</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로19길 18 2층</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0507-1426-3231</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>포도당</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 142 CM빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0507-1380-6612</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>포트앤나달</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 142 CM빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0507-1380-6612</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>오코노미야키골드</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로 67 1층</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '22:45'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '22:45'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '22:45'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '22:45'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:15'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:15'})]</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0507-1325-8615</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>크라운호프 망원점</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 133 1층</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0507-1381-0725</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>망원바이브</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로 70 지층 1호</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('수', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('목', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('금', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('토', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('일', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'})]</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>나들목빈대떡</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 33</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>02-324-5086</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>코지식탁</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 33</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>02-324-5086</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>새벽애 샹들리에포차</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로9길 57 2층 새벽애</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('수', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('목', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('금', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('토', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('일', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'})]</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>02-537-1110</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>섬</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로9길 57 2층 새벽애</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>02-537-1110</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>초쿤바</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로6길 49 2층</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0507-1494-7017</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>글래스트레인</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로6길 49 2층</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0507-1494-7017</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>더파인트</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로23길 5 2층</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0507-1316-0410</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>소파</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로10길 15 103호</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'})]</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0507-1371-6091</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>낮도깨비 밤도깨비</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로15길 76 1층</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0507-1339-9807</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>스윗브릿지</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로15길 76 1층</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '12:00 - 18:00', 'last_order_time': '17:00'})]</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0507-1339-9807</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>즐거운포차</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 27-1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>010-5248-0633</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>라비앙로즈</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 27-1</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>010-5248-0633</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>치꼬뱅</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로 68</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0507-1421-2303</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>건어물라운지</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 105</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0507-1423-8955</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>바코드포차</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 105</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0507-1423-8955</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>볼링</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로7길 5</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>02-324-0928</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>망원튀맥집</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로7길 5</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>02-324-0928</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>101호</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로 128 1층 녹색문</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>02-3143-1015</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>깡포차</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로 128 1층 녹색문</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>02-3143-1015</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>진가식탁</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로21길 18 지층</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>02-323-4545</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>방랑</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로21길 18 지층</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('수', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('토', {'open_time': '16:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>02-323-4545</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>빌라마리아나</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로21길 18 2층</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'})]</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0507-1376-5603</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>골목집</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로 74</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>02-336-7501</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>투다리 망원2점</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로29길 5 1층 일부</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>02-3144-7786</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>5678 망원동</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로29길 5 1층 일부</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '00:00 - 00:05', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0507-1365-5786</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>투다리 망원1점</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로10길 4 2층</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>070-5111-6601</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>사뭇</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로9길 34 1층</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>낯꽃</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로19길 74</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>02-336-0594</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>한강가자</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로29길 6</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>02-336-0594</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>남이네포장마차</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 63</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0507-1437-9295</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>헤이보틀 와인샵</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 61 1층</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>070-8891-9333</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>노가리와호프</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 63 1층</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>비어트립</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 63 1층</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>070-8285-6790</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>세르베자 망원점</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0507-1310-2620</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Slow Supper Club</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로6길 39 . 1층 104호(망원동)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('화', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '15:30 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '15:30 - 17:00 브레이크타임'})]</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0507-1388-1194</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>만나포차</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로 94</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>02-326-0141</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>뚱이네포차스트렁큰</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로 65</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>글렌</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로 77 105호 GLEN</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0507-1339-1638</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>노가리랑 닭발</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 133 1층</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>02-336-9233</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>망원술집</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 133 1층</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>02-336-9233</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>리와인드</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 108 5층</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>한잔두잔</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로9길 37</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0507-1327-7320</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>머니뭐니</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로9길 37</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>02-325-5955</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>짝태앤노가리 망원점</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 143</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>유 포장마차</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로 73</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0507-1324-8726</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>유퓨전포차</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로 79</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>P LOUNGE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로19길 74 어쩌다가게 망원 B104호</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>070-5121-5628</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 63 1층 술집</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>010-8569-7833</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>망원옥상</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 63 1층 술집</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>010-8564-8858</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>묵을래</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 75 1층</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>02-333-2657</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 75 1층</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0507-1396-7896</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>동신커피앤호프</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 88</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>02-332-6009</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>스트렁큰</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로 65</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>02-325-0424</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>포레스트인망원</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>서울 마포구 방울내로 65</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>02-325-0424</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>시베리아 빙수</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로8길 14</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>대한활맥</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 117</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>망원주유소</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 99-1</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>골뱅이와노가리</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로25길 26 마포영화블렌하임</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>02-3142-1642</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>여인천하</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>단란주점</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 39</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>02-3141-3382</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>큐바</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 93 지하1층(망원동)</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BARGLEN</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로 77 105호</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>발리 슈퍼스토어</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 45 2층</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '13:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '13:00 - 24:00', 'last_order_time': '23:30'})]</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>02-323-7871</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>서교주담 합정</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 45 2층</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>02-323-7871</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>붉은낙타</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>070-4833-5965</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>썬키친</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 50 2층</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0507-1338-4681</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>디엠</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 50 2층</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0507-1338-4681</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>미나리</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>010-9585-7805</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>홍콩포차</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>서울 마포구 홍익로3길 44 2층</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0507-1335-4002</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>훈민정음 서울합정점</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로7길 21</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>02-336-1447</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>아소토</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로7길 21</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>02-336-1447</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>호맥 합정점</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:30 - 01:30', 'last_order_time': '00:30'}), ('화', {'open_time': '16:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '16:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '16:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '14:00 - 01:30', 'last_order_time': '00:30'})]</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>02-333-7466</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>당인리극장</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>02-333-7466</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>이키</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 36-20 1층</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>010-9915-5915</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>지하102호 1호점</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'})]</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0507-1308-8648</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>심야식당 오밤중</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0507-1308-8648</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>조선시대</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>서울 마포구 홍익로3길 44 지하1층</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0507-1478-1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>몽주방</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로7길 20 1층</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0507-1364-7875</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>주무대</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 32</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0507-1440-1221</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>깊은숲</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 32</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0507-1440-1221</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>동동포차DDPC</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 30 1층</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>02-336-0358</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>개화기요정</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 30 1층</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>02-336-0358</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>우규</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 21 1.5층</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0507-1448-3465</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>사카바 토리야</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 21 1.5층</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0507-1448-3465</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>낮달</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>서울 마포구 망원로 22 / 2,3층</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>070-4897-2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>몽주막</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '16:00 - 02:30', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 02:30', 'last_order_time': '02:00'}), ('일', {'open_time': '15:30 - 01:00', 'last_order_time': '00:30'})]</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0507-1353-3844</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>가로수포차</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>010-7357-2551</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>금강산호프</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 18</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>02-334-8120</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>사람사는이야기442</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 18</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>02-334-8120</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>합정유리</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 99-11 2층</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '14:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0507-1352-2195</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>지하102호 2호점</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 39 1층</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0507-1388-8648</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>과일가게</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 39 1층</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0507-1388-8648</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>모양</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 24-9 1층</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'})]</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0507-1383-1032</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>별그리는바다</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로5길 17 1층</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0507-1361-4011</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>세부인보드카</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 65 2층</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>02-322-3634</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>카사블랑코</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 65 2층</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>02-322-3634</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>철판집</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 24-11 1층 철판집</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'}), ('화', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:00 - 02:30', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:30', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'})]</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0507-1483-9233</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>버드폭</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>서울 영등포구 양평로22길 21 1층 A106호</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('화', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('수', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0507-1370-0535</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>호랑이</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>서울 영등포구 양평로22길 21 1층 A106호</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0507-1370-0535</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>시소</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 43-1 3층 시소</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0507-1412-8744</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>이목</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 43-1 3층 시소</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0507-1412-8744</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
           <t>모이정</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>서울 마포구 성미산로 122 1층</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
         <is>
           <t>0507-1381-2885</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>색다른한잔</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 122 1층</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0507-1381-2885</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>술생술사</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 51 술생술사</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'})]</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>88양자카야</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>펍차 아지트</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>노리터</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>넉탐</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>꿀벌</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>아니키</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>히게쯔라</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>무니</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0507-1336-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>바코포차</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 35 1층</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0507-1368-1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>7번방 룸포차</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 35 1층</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0507-1368-1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>로타리</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 35 1층</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0507-1368-1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>김씨네심야식당</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 35 1층</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0507-1368-1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>정이포장마차</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 35 1층</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0507-1368-1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>합정공감</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 35 1층</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0507-1368-1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>형제집</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 35 1층</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0507-1368-1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>초월집</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 35 1층</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0507-1368-1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>천하의문타로</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>윤슬</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>원나잇</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>지하102호 3호점</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>그늘</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>남자식탁</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>추자로557</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>돌포차 Dorrr</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>올드타운 홍대점</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>작가 홍대본점</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>지하102호 5호점</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>아크틱</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>파리아저씨</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>02-336-3009</t>
         </is>
       </c>
     </row>

--- a/excel/망원_processed.xlsx
+++ b/excel/망원_processed.xlsx
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>해금도</t>
+          <t>반주</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,29 +483,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 63 1층</t>
+          <t>서울 마포구 월드컵로19길 18 2층</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>02-336-7656</t>
+          <t>0507-1426-3231</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>트릴토리</t>
+          <t>휴식당</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로7길 54</t>
+          <t>서울 마포구 동교로 43-1 1층 매장전화 부재시 01046342896</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'})]</t>
+          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>010-4939-7496</t>
+          <t>0507-1355-2896</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -628,12 +628,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>너랑나랑호프</t>
+          <t>미자카야</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -660,32 +660,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>미자카야</t>
+          <t>너랑나랑호프</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5 1층</t>
+          <t>서울 마포구 월드컵로 61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1362-7637</t>
+          <t>010-4422-5157</t>
         </is>
       </c>
     </row>
@@ -702,22 +702,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 73 1층</t>
+          <t>서울 마포구 월드컵로 61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1308-6389</t>
+          <t>010-4422-5157</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -798,86 +798,86 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 109 102호</t>
+          <t>서울 마포구 희우정로20길 75 1층 나나</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02-322-5545</t>
+          <t>0507-1348-3237</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>망원 그곳</t>
+          <t>리파인 망원</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 109 102호</t>
+          <t>서울 마포구 희우정로20길 75 1층 나나</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02-322-5545</t>
+          <t>0507-1348-3237</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>리파인 망원</t>
+          <t>망원 그곳</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 109 102호</t>
+          <t>서울 마포구 월드컵로13길 19-19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02-322-5545</t>
+          <t>010-3745-7037</t>
         </is>
       </c>
     </row>
@@ -894,86 +894,86 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로11길 26 101호</t>
+          <t>서울 마포구 월드컵로13길 19-19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1373-1799</t>
+          <t>010-3745-7037</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>꿩먹고알먹고</t>
+          <t>월명식당</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 방울내로 66 1층</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>010-5415-3562</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>월명식당</t>
+          <t>꿩먹고알먹고</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 방울내로 66 1층</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>010-5415-3562</t>
         </is>
       </c>
     </row>
@@ -990,22 +990,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 희우정로16길 54-5 2층</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1352-4083</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 포은로 86-1 1층 103호(망원동)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1358-5632</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 동교로 43-1 1층 매장전화 부재시 01046342896</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1355-2896</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 포은로 63 3층</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절19:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1380-6667</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 망원로7길 54</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '제헌절10:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>010-4939-7496</t>
         </is>
       </c>
     </row>
@@ -1150,61 +1150,61 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 동교로 33-3 1층 망원양화</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1354-4130</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>슌우</t>
+          <t>세이슈</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 희우정로16길 54-5 2층</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1352-4083</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>철길부산집 망원점</t>
+          <t>트릴토리</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1214,22 +1214,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 망원로7길 54</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '제헌절10:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>010-4939-7496</t>
         </is>
       </c>
     </row>
@@ -1246,22 +1246,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 희우정로16길 17 지층</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1307-5938</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 월드컵로29길 7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1339-6338</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 포은로 97-1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>02-6082-2341</t>
         </is>
       </c>
     </row>
@@ -1342,22 +1342,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 월드컵로23길 20 2층</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1372-2320</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 월드컵로23길 20 2층</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1372-2320</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 월드컵로19길 12 2층</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>070-4042-1536</t>
         </is>
       </c>
     </row>
@@ -1438,22 +1438,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 월드컵로19길 12 2층</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:30 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:30 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1355-1575</t>
         </is>
       </c>
     </row>
@@ -1534,22 +1534,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37</t>
+          <t>서울 마포구 포은로 61</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>02-336-0710</t>
+          <t>0507-1328-4360</t>
         </is>
       </c>
     </row>
@@ -1566,22 +1566,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37</t>
+          <t>서울 마포구 포은로 61</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>02-336-0710</t>
+          <t>0507-1328-4360</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1598,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37</t>
+          <t>서울 마포구 희우정로12길 23 1층 101호</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>02-336-0710</t>
+          <t>0507-1422-0227</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37</t>
+          <t>서울 마포구 희우정로12길 23 1층 101호</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0507-1344-9599</t>
+          <t>0507-1422-0227</t>
         </is>
       </c>
     </row>
@@ -1662,44 +1662,44 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 70-1</t>
+          <t>서울 마포구 망원로2길 87 1층</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('수', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('목', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('금', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('토', {'open_time': '14:00 - 05:00', 'last_order_time': '04:00'}), ('일', {'open_time': '14:00 - 05:00', 'last_order_time': '04:00'})]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0507-1344-9599</t>
+          <t>0507-1351-4149</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>나이트엔데이</t>
+          <t>시러스</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 70-1</t>
+          <t>서울 마포구 망원로2길 87 1층</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1709,39 +1709,39 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0507-1344-9599</t>
+          <t>0507-1351-4149</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>시러스</t>
+          <t>나이트엔데이</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 70-1</t>
+          <t>서울 마포구 희우정로10길 15 상가동 112호, 113호</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절12:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0507-1344-9599</t>
+          <t>0507-1435-9942</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1758,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 70-1</t>
+          <t>서울 마포구 포은로 74 1층</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0507-1344-9599</t>
+          <t>02-6083-5628</t>
         </is>
       </c>
     </row>
@@ -1790,29 +1790,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 70-1</t>
+          <t>서울 마포구 포은로 74 1층</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1344-9599</t>
+          <t>02-6083-5628</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>슌우</t>
+          <t>책바</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 1층</t>
+          <t>서울 마포구 포은로 90 301호</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금(7/14)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토(7/15)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0507-1377-5285</t>
+          <t>0507-1402-5858</t>
         </is>
       </c>
     </row>
@@ -1854,34 +1854,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 86-1 1층</t>
+          <t>서울 마포구 포은로 90 301호</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1373-7481</t>
+          <t>0507-1402-5858</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>철길부산집 망원점</t>
+          <t>슌우</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1891,17 +1891,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+          <t>서울 마포구 포은로 63 1층</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0507-1378-8642</t>
+          <t>0507-1377-5285</t>
         </is>
       </c>
     </row>
@@ -1972,12 +1972,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>해금도</t>
+          <t>철길부산집 망원점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2004,44 +2004,44 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>위드바틀</t>
+          <t>해금도</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+          <t>서울 마포구 망원로 63 1층</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 21:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1459-6040</t>
+          <t>02-336-7656</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>뱃놀이</t>
+          <t>위드바틀</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2068,39 +2068,39 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>망원연속체</t>
+          <t>뱃놀이</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 55 2층</t>
+          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 21:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절14:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0507-1394-3845</t>
+          <t>0507-1459-6040</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>주에뉘</t>
+          <t>망원연속체</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2115,24 +2115,24 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로15길 17 1층 주에뉘</t>
+          <t>서울 마포구 동교로 55 2층</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0507-1378-2383</t>
+          <t>0507-1394-3845</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>망원도</t>
+          <t>주에뉘</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2142,34 +2142,34 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75</t>
+          <t>서울 마포구 월드컵로15길 17 1층 주에뉘</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('수(7/12)', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0507-1423-2022</t>
+          <t>0507-1378-2383</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>케그샵 프리미엄수제맥주&amp;전통주 셀렉샵 망원한강점</t>
+          <t>망원도</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2196,44 +2196,44 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>해금도</t>
+          <t>반주</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 63 1층</t>
+          <t>서울 마포구 포은로 75</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>02-336-7656</t>
+          <t>0507-1423-2022</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>트릴토리</t>
+          <t>휴식당</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2243,17 +2243,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로7길 54</t>
+          <t>서울 마포구 동교로 43-1 1층 매장전화 부재시 01046342896</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'})]</t>
+          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>010-4939-7496</t>
+          <t>0507-1355-2896</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2356,12 +2356,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>너랑나랑호프</t>
+          <t>미자카야</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2388,32 +2388,32 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>미자카야</t>
+          <t>너랑나랑호프</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5 1층</t>
+          <t>서울 마포구 월드컵로 61</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0507-1362-7637</t>
+          <t>010-4422-5157</t>
         </is>
       </c>
     </row>
@@ -2430,22 +2430,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 73 1층</t>
+          <t>서울 마포구 월드컵로 61</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0507-1308-6389</t>
+          <t>010-4422-5157</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2548,12 +2548,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>망원 그곳</t>
+          <t>리파인 망원</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2580,32 +2580,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>리파인 망원</t>
+          <t>망원 그곳</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 형섭빌딩 2층</t>
+          <t>서울 마포구 월드컵로13길 19-19</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0507-1346-3024</t>
+          <t>010-3745-7037</t>
         </is>
       </c>
     </row>
@@ -2622,44 +2622,44 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로11길 26 101호</t>
+          <t>서울 마포구 월드컵로13길 19-19</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '20:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0507-1373-1799</t>
+          <t>010-3745-7037</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>꿩먹고알먹고</t>
+          <t>월명식당</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 방울내로 66 1층</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2669,39 +2669,39 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>010-5415-3562</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>월명식당</t>
+          <t>꿩먹고알먹고</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 방울내로 66 1층</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('토', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'}), ('일', {'open_time': '17:30 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>010-5415-3562</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절19:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '제헌절10:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2900,12 +2900,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>슌우</t>
+          <t>세이슈</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2915,24 +2915,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 1층</t>
+          <t>서울 마포구 희우정로16길 54-5 2층</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0507-1377-5285</t>
+          <t>0507-1352-4083</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>철길부산집 망원점</t>
+          <t>트릴토리</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2947,17 +2947,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+          <t>서울 마포구 망원로7길 54</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '제헌절10:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0507-1378-8642</t>
+          <t>010-4939-7496</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3412,12 +3412,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>나이트엔데이</t>
+          <t>시러스</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3444,12 +3444,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>시러스</t>
+          <t>나이트엔데이</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3459,17 +3459,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 56</t>
+          <t>서울 마포구 희우정로10길 15 상가동 112호, 113호</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절12:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0507-1316-1130</t>
+          <t>0507-1435-9942</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>슌우</t>
+          <t>책바</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3550,22 +3550,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 1층</t>
+          <t>서울 마포구 포은로 90 301호</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금(7/14)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토(7/15)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0507-1377-5285</t>
+          <t>0507-1402-5858</t>
         </is>
       </c>
     </row>
@@ -3582,34 +3582,34 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 86-1 1층</t>
+          <t>서울 마포구 포은로 90 301호</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0507-1373-7481</t>
+          <t>0507-1402-5858</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>철길부산집 망원점</t>
+          <t>슌우</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+          <t>서울 마포구 포은로 63 1층</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0507-1378-8642</t>
+          <t>0507-1377-5285</t>
         </is>
       </c>
     </row>
@@ -3700,12 +3700,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>해금도</t>
+          <t>철길부산집 망원점</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3732,44 +3732,44 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>위드바틀</t>
+          <t>해금도</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+          <t>서울 마포구 망원로 63 1층</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 21:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0507-1459-6040</t>
+          <t>02-336-7656</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>뱃놀이</t>
+          <t>위드바틀</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3796,39 +3796,39 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>망원연속체</t>
+          <t>뱃놀이</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 55 2층</t>
+          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 21:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절14:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0507-1394-3845</t>
+          <t>0507-1459-6040</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>주에뉘</t>
+          <t>망원연속체</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3843,24 +3843,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로15길 17 1층 주에뉘</t>
+          <t>서울 마포구 동교로 55 2층</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0507-1378-2383</t>
+          <t>0507-1394-3845</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>망원도</t>
+          <t>주에뉘</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3870,34 +3870,34 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75</t>
+          <t>서울 마포구 월드컵로15길 17 1층 주에뉘</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('수(7/12)', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0507-1423-2022</t>
+          <t>0507-1378-2383</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>케그샵 프리미엄수제맥주&amp;전통주 셀렉샵 망원한강점</t>
+          <t>망원도</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3934,86 +3934,86 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 포은로 75</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>0507-1423-2022</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>아루감</t>
+          <t>케그샵 프리미엄수제맥주&amp;전통주 셀렉샵 망원한강점</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 망원로 1 6호 (102호)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>0507-1421-6204</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>시장맥주</t>
+          <t>아루감</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 60 2층</t>
+          <t>서울 마포구 월드컵로19길 8 2,3층</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0507-1319-2841</t>
+          <t>0507-1406-3213</t>
         </is>
       </c>
     </row>
@@ -4030,98 +4030,98 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 60 2층</t>
+          <t>서울 마포구 월드컵로19길 8 2,3층</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0507-1319-2841</t>
+          <t>0507-1406-3213</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>선술집 순</t>
+          <t>시장맥주</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로15길 40 선술집 순</t>
+          <t>서울 마포구 월드컵로13길 60 2층</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'}), ('목', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'}), ('금', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'}), ('토', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'}), ('일', {'open_time': '18:00 - 04:00', 'last_order_time': '02:30'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0507-1389-4045</t>
+          <t>0507-1319-2841</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>역전할머니맥주 망원점</t>
+          <t>선술집 순</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 51</t>
+          <t>서울 마포구 월드컵로13길 60 2층</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 05:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 05:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>02-332-1984</t>
+          <t>0507-1319-2841</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>루바토와인</t>
+          <t>역전할머니맥주 망원점</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 05:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 05:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절16:00 - 05:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4148,32 +4148,32 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>살롱드낭만</t>
+          <t>루바토와인</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
+          <t>서울 마포구 동교로9길 51</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0507-1337-8684</t>
+          <t>02-332-1984</t>
         </is>
       </c>
     </row>
@@ -4190,76 +4190,76 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
+          <t>서울 마포구 희우정로16길 54 세림빌딩 101호</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0507-1337-8684</t>
+          <t>0507-1312-8097</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>부산본가</t>
+          <t>살롱드낭만</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 7-1</t>
+          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>010-8461-6611</t>
+          <t>0507-1337-8684</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>코멘터리사운드 와인샵 &amp; 와인바</t>
+          <t>부산본가</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>전통,민속주점</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 7-1</t>
+          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4269,19 +4269,19 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>010-8461-6611</t>
+          <t>0507-1337-8684</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>반주</t>
+          <t>코멘터리사운드 와인샵 &amp; 와인바</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4291,49 +4291,49 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 18 2층</t>
+          <t>서울 마포구 월드컵로23길 18 201호</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '15:00 - 22:00', 'last_order_time': '21:30'})]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0507-1426-3231</t>
+          <t>0507-1425-2281</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>포도당</t>
+          <t>반주</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 142 CM빌딩 1층</t>
+          <t>서울 마포구 월드컵로19길 18 2층</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0507-1380-6612</t>
+          <t>0507-1426-3231</t>
         </is>
       </c>
     </row>
@@ -4350,54 +4350,54 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 142 CM빌딩 1층</t>
+          <t>서울 마포구 월드컵로23길 19 2층</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '05:00 - 06:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0507-1380-6612</t>
+          <t>0507-1319-7793</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>오코노미야키골드</t>
+          <t>포도당</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 67 1층</t>
+          <t>서울 마포구 월드컵로23길 19 2층</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '22:45'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '22:45'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '22:45'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '22:45'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:15'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:15'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0507-1325-8615</t>
+          <t>0507-1319-7793</t>
         </is>
       </c>
     </row>
@@ -4436,54 +4436,54 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>망원바이브</t>
+          <t>새벽애 샹들리에포차</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로 70 지층 1호</t>
+          <t>서울 마포구 동교로9길 57 2층 새벽애</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('수', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('목', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('금', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('토', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('일', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('수', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('목', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('금', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('토', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('일', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('월(7/17)', {'open_time': '제헌절15:00 - 05:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-537-1110</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>나들목빈대떡</t>
+          <t>오코노미야키골드</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 33</t>
+          <t>서울 마포구 동교로9길 57 2층 새벽애</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>02-324-5086</t>
+          <t>02-537-1110</t>
         </is>
       </c>
     </row>
@@ -4510,76 +4510,76 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 33</t>
+          <t>서울 마포구 월드컵로19길 18 1.5층</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>02-324-5086</t>
+          <t>0507-1408-2646</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>새벽애 샹들리에포차</t>
+          <t>섬</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 57 2층 새벽애</t>
+          <t>서울 마포구 희우정로 103</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('수', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('목', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('금', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('토', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('일', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>02-537-1110</t>
+          <t>010-8955-3600</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>섬</t>
+          <t>나들목빈대떡</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>전통,민속주점</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 57 2층 새벽애</t>
+          <t>서울 마포구 희우정로 103</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4589,14 +4589,14 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>02-537-1110</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>초쿤바</t>
+          <t>글래스트레인</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4606,29 +4606,29 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로6길 49 2층</t>
+          <t>서울 마포구 동교로 33</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0507-1494-7017</t>
+          <t>02-324-5086</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>글래스트레인</t>
+          <t>초쿤바</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 5 2층</t>
+          <t>서울 마포구 망원로6길 49 2층</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4685,14 +4685,14 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0507-1316-0410</t>
+          <t>0507-1494-7017</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>소파</t>
+          <t>망원바이브</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4707,56 +4707,56 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로10길 15 103호</t>
+          <t>서울 마포구 희우정로 70 지층 1호</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('수', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('목', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('금', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('토', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('일', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'})]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0507-1371-6091</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>낮도깨비 밤도깨비</t>
+          <t>소파</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로15길 76 1층</t>
+          <t>서울 마포구 희우정로10길 15 103호</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0507-1339-9807</t>
+          <t>0507-1371-6091</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>스윗브릿지</t>
+          <t>낮도깨비 밤도깨비</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4788,44 +4788,44 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>즐거운포차</t>
+          <t>스윗브릿지</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 27-1</t>
+          <t>서울 마포구 월드컵로15길 76 1층</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>010-5248-0633</t>
+          <t>0507-1339-9807</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>라비앙로즈</t>
+          <t>즐거운포차</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4852,22 +4852,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>치꼬뱅</t>
+          <t>라비앙로즈</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 68</t>
+          <t>서울 마포구 동교로 27-1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4877,14 +4877,14 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0507-1421-2303</t>
+          <t>010-5248-0633</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>건어물라운지</t>
+          <t>치꼬뱅</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4894,12 +4894,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 105</t>
+          <t>서울 마포구 방울내로 68</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4909,19 +4909,19 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0507-1423-8955</t>
+          <t>0507-1421-2303</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>바코드포차</t>
+          <t>건어물라운지</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4948,22 +4948,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>볼링</t>
+          <t>바코드포차</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로7길 5</t>
+          <t>서울 마포구 포은로 105</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4973,14 +4973,14 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>02-324-0928</t>
+          <t>0507-1423-8955</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>망원튀맥집</t>
+          <t>볼링</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5012,44 +5012,44 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>101호</t>
+          <t>망원튀맥집</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로 128 1층 녹색문</t>
+          <t>서울 마포구 방울내로7길 5</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>02-3143-1015</t>
+          <t>02-324-0928</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>깡포차</t>
+          <t>101호</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절19:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5076,22 +5076,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>진가식탁</t>
+          <t>깡포차</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로21길 18 지층</t>
+          <t>서울 마포구 희우정로 128 1층 녹색문</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5101,19 +5101,19 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>02-323-4545</t>
+          <t>02-3143-1015</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>방랑</t>
+          <t>진가식탁</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('수', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('토', {'open_time': '16:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>빌라마리아나</t>
+          <t>방랑</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5150,34 +5150,34 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로21길 18 2층</t>
+          <t>서울 마포구 월드컵로21길 18 지층</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('수', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('토', {'open_time': '16:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절16:00 - 23:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0507-1376-5603</t>
+          <t>02-323-4545</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>골목집</t>
+          <t>빌라마리아나</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5187,39 +5187,39 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 74</t>
+          <t>서울 마포구 월드컵로21길 18 2층</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('월(7/17)', {'open_time': '제헌절19:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>02-336-7501</t>
+          <t>0507-1376-5603</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>투다리 망원2점</t>
+          <t>골목집</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로29길 5 1층 일부</t>
+          <t>서울 마포구 방울내로 74</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5229,19 +5229,19 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>02-3144-7786</t>
+          <t>02-336-7501</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5678 망원동</t>
+          <t>투다리 망원2점</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>오뎅,꼬치</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5256,88 +5256,88 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '00:00 - 00:05', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0507-1365-5786</t>
+          <t>02-3144-7786</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>투다리 망원1점</t>
+          <t>5678 망원동</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로10길 4 2층</t>
+          <t>서울 마포구 월드컵로29길 5 1층 일부</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '00:00 - 00:05', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>070-5111-6601</t>
+          <t>0507-1365-5786</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>사뭇</t>
+          <t>투다리 망원1점</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>오뎅,꼬치</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 34 1층</t>
+          <t>서울 마포구 희우정로10길 4 2층</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1365-5786</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>낯꽃</t>
+          <t>사뭇</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5352,39 +5352,39 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>02-336-0594</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>한강가자</t>
+          <t>낯꽃</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로29길 6</t>
+          <t>서울 마포구 월드컵로19길 74</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5406,54 +5406,54 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 63</t>
+          <t>서울 마포구 월드컵로29길 6</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0507-1437-9295</t>
+          <t>02-336-0594</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>헤이보틀 와인샵</t>
+          <t>한강가자</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 61 1층</t>
+          <t>서울 마포구 망원로 7</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>070-8891-9333</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
@@ -5470,12 +5470,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 63 1층</t>
+          <t>서울 마포구 망원로 7</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5492,12 +5492,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>비어트립</t>
+          <t>헤이보틀 와인샵</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5512,19 +5512,19 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>070-8285-6790</t>
+          <t>070-8891-9333</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>세르베자 망원점</t>
+          <t>비어트립</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5588,39 +5588,39 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>만나포차</t>
+          <t>세르베자 망원점</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 94</t>
+          <t>서울 마포구 망원로 22 / 2,3층</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>02-326-0141</t>
+          <t>070-4897-2018</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>뚱이네포차스트렁큰</t>
+          <t>만나포차</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5630,12 +5630,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 65</t>
+          <t>서울 마포구 망원로 22 / 2,3층</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5645,19 +5645,19 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>070-4897-2018</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>글렌</t>
+          <t>뚱이네포차스트렁큰</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로 77 105호 GLEN</t>
+          <t>서울 마포구 방울내로 65</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5677,29 +5677,29 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0507-1339-1638</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>노가리랑 닭발</t>
+          <t>글렌</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 133 1층</t>
+          <t>서울 마포구 희우정로 77 105호 GLEN</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5709,19 +5709,19 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>02-336-9233</t>
+          <t>0507-1339-1638</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>망원술집</t>
+          <t>노가리랑 닭발</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5748,22 +5748,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>리와인드</t>
+          <t>망원술집</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 108 5층</t>
+          <t>서울 마포구 월드컵로 133 1층</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-336-9233</t>
         </is>
       </c>
     </row>
@@ -5812,12 +5812,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>머니뭐니</t>
+          <t>리와인드</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5837,14 +5837,14 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>02-325-5955</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>짝태앤노가리 망원점</t>
+          <t>머니뭐니</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5869,29 +5869,29 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-325-5955</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>유 포장마차</t>
+          <t>짝태앤노가리 망원점</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 73</t>
+          <t>서울 마포구 월드컵로 143</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5901,29 +5901,29 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0507-1324-8726</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>유퓨전포차</t>
+          <t>유 포장마차</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 79</t>
+          <t>서울 마포구 방울내로 73</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5933,46 +5933,46 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1324-8726</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>P LOUNGE</t>
+          <t>유퓨전포차</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 74 어쩌다가게 망원 B104호</t>
+          <t>서울 마포구 방울내로 79</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>070-5121-5628</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>P LOUNGE</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5982,34 +5982,34 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 1층 술집</t>
+          <t>서울 마포구 월드컵로19길 74 어쩌다가게 망원 B104호</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>010-8569-7833</t>
+          <t>070-5121-5628</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>망원옥상</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6029,61 +6029,61 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>010-8564-8858</t>
+          <t>010-8569-7833</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>묵을래</t>
+          <t>스트렁큰</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층</t>
+          <t>서울 마포구 포은로 63 1층 술집</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>02-333-2657</t>
+          <t>02-325-0424</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>망치</t>
+          <t>망원옥상</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층</t>
+          <t>서울 마포구 방울내로 65</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,29 +6093,29 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0507-1396-7896</t>
+          <t>02-325-0424</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>동신커피앤호프</t>
+          <t>묵을래</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 88</t>
+          <t>서울 마포구 포은로 75 1층</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6125,61 +6125,61 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>02-332-6009</t>
+          <t>02-333-2657</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>스트렁큰</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 65</t>
+          <t>서울 마포구 포은로 75 1층</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>02-325-0424</t>
+          <t>0507-1396-7896</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>포레스트인망원</t>
+          <t>동신커피앤호프</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 65</t>
+          <t>서울 마포구 포은로 88</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,19 +6189,19 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>02-325-0424</t>
+          <t>02-332-6009</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>시베리아 빙수</t>
+          <t>포레스트인망원</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6211,29 +6211,29 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 14</t>
+          <t>서울 마포구 포은로 72 5층</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1439-5131</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>대한활맥</t>
+          <t>시베리아 빙수</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 117</t>
+          <t>서울 마포구 포은로8길 14</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>망원주유소</t>
+          <t>대한활맥</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 99-1</t>
+          <t>서울 마포구 월드컵로 117</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6292,12 +6292,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>골뱅이와노가리</t>
+          <t>망원주유소</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로25길 26 마포영화블렌하임</t>
+          <t>서울 마포구 월드컵로 99-1</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6317,19 +6317,19 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>02-3142-1642</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>여인천하</t>
+          <t>골뱅이와노가리</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>단란주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 39</t>
+          <t>서울 마포구 월드컵로25길 26 마포영화블렌하임</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6349,19 +6349,19 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>02-3141-3382</t>
+          <t>02-3142-1642</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>큐바</t>
+          <t>여인천하</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>단란주점</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 93 지하1층(망원동)</t>
+          <t>서울 마포구 동교로 39</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,19 +6381,19 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-3141-3382</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BARGLEN</t>
+          <t>큐바</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로 77 105호</t>
+          <t>서울 마포구 월드컵로 93 지하1층(망원동)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6420,44 +6420,44 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>발리 슈퍼스토어</t>
+          <t>BARGLEN</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 45 2층</t>
+          <t>서울 마포구 희우정로 77 105호</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '13:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '13:00 - 24:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>02-323-7871</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>서교주담 합정</t>
+          <t>발리 슈퍼스토어</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '13:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '13:00 - 24:00', 'last_order_time': '23:30'})]</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6484,7 +6484,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>붉은낙타</t>
+          <t>서교주담 합정</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6494,29 +6494,29 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
+          <t>서울 마포구 양화로6길 45 2층</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>070-4833-5965</t>
+          <t>02-323-7871</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>썬키친</t>
+          <t>붉은낙타</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6526,34 +6526,34 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>070-4833-5965</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>디엠</t>
+          <t>썬키친</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6580,39 +6580,39 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>미나리</t>
+          <t>디엠</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
+          <t>서울 마포구 양화로6길 50 2층</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>010-9585-7805</t>
+          <t>0507-1338-4681</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>홍콩포차</t>
+          <t>미나리</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6627,24 +6627,24 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>서울 마포구 홍익로3길 44 2층</t>
+          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0507-1335-4002</t>
+          <t>010-9585-7805</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>훈민정음 서울합정점</t>
+          <t>홍콩포차</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6654,34 +6654,34 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 21</t>
+          <t>서울 마포구 홍익로3길 44 2층</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>02-336-1447</t>
+          <t>0507-1335-4002</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>아소토</t>
+          <t>훈민정음 서울합정점</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6718,93 +6718,93 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+          <t>서울 마포구 독막로7길 21</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 01:30', 'last_order_time': '00:30'}), ('화', {'open_time': '16:30 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '16:30 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '16:30 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '14:00 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>02-333-7466</t>
+          <t>02-336-1447</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>당인리극장</t>
+          <t>아소토</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+          <t>서울 마포구 독막로2길 34 1층 아소토</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '21:30'}), ('화(7/18)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>02-333-7466</t>
+          <t>0507-1345-9622</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>이키</t>
+          <t>당인리극장</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 36-20 1층</t>
+          <t>서울 마포구 독막로2길 34 1층 아소토</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>010-9915-5915</t>
+          <t>0507-1345-9622</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>지하102호 1호점</t>
+          <t>이키</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6814,29 +6814,29 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+          <t>서울 마포구 성지길 36-20 1층</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('월(7/17)', {'open_time': '제헌절17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>0507-1308-8648</t>
+          <t>010-9915-5915</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>심야식당 오밤중</t>
+          <t>주무대</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6861,29 +6861,29 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>0507-1308-8648</t>
+          <t>0507-1440-1221</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>조선시대</t>
+          <t>지하102호 1호점</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>서울 마포구 홍익로3길 44 지하1층</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6893,14 +6893,14 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>0507-1478-1045</t>
+          <t>0507-1308-8648</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>몽주방</t>
+          <t>심야식당 오밤중</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6910,29 +6910,29 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 20 1층</t>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'})]</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>0507-1364-7875</t>
+          <t>0507-1308-8648</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>주무대</t>
+          <t>조선시대</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6942,44 +6942,44 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로3길 32</t>
+          <t>서울 마포구 홍익로3길 44 지하1층</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>0507-1440-1221</t>
+          <t>0507-1478-1045</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>깊은숲</t>
+          <t>몽주방</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로3길 32</t>
+          <t>서울 마포구 독막로7길 20 1층</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6989,29 +6989,29 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>0507-1440-1221</t>
+          <t>0507-1364-7875</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>동동포차DDPC</t>
+          <t>깊은숲</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 30 1층</t>
+          <t>서울 마포구 독막로 27</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>02-336-0358</t>
+          <t>0507-1410-6865</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>개화기요정</t>
+          <t>동동포차DDPC</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7038,54 +7038,54 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 30 1층</t>
+          <t>서울 마포구 독막로 27</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>02-336-0358</t>
+          <t>0507-1410-6865</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>우규</t>
+          <t>개화기요정</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 21 1.5층</t>
+          <t>서울 마포구 독막로7길 22 개화기요정</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목요일 17:00 - 02:00', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금요일 17:00 - 03:00', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토요일 17:00 - 03:00', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일요일 17:00 - 02:00', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('월요일 17:00 - 02:00', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화요일 17:00 - 02:00', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>0507-1448-3465</t>
+          <t>02-325-6677</t>
         </is>
       </c>
     </row>
@@ -7102,61 +7102,61 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 21 1.5층</t>
+          <t>서울 마포구 독막로3길 38 2층</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>0507-1448-3465</t>
+          <t>0507-1353-4741</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>낮달</t>
+          <t>우규</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 22 / 2,3층</t>
+          <t>서울 마포구 동교로 37 2층</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>070-4897-2018</t>
+          <t>0507-1448-3465</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>몽주막</t>
+          <t>낮달</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7166,29 +7166,29 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
+          <t>서울 마포구 독막로3길 21 1.5층</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '16:00 - 02:30', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 02:30', 'last_order_time': '02:00'}), ('일', {'open_time': '15:30 - 01:00', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>0507-1353-3844</t>
+          <t>0507-1448-3465</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>가로수포차</t>
+          <t>몽주막</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7203,61 +7203,61 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
+          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '16:00 - 02:30', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 02:30', 'last_order_time': '02:00'}), ('일', {'open_time': '15:30 - 01:00', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>010-7357-2551</t>
+          <t>0507-1353-3844</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>금강산호프</t>
+          <t>가로수포차</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>010-7357-2551</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>사람사는이야기442</t>
+          <t>금강산호프</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7284,7 +7284,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>합정유리</t>
+          <t>사람사는이야기442</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7294,66 +7294,66 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 99-11 2층</t>
+          <t>서울 마포구 성지길 18</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '14:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>0507-1352-2195</t>
+          <t>0507-1337-0442</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>지하102호 2호점</t>
+          <t>합정유리</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 39 1층</t>
+          <t>서울 마포구 어울마당로5길 52 사사이</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('화', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('수', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('목', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('금', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('토', {'open_time': '15:30 - 05:00', 'last_order_time': '04:00'}), ('일', {'open_time': '15:30 - 05:00', 'last_order_time': '04:00'})]</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>0507-1388-8648</t>
+          <t>0507-1337-0442</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>과일가게</t>
+          <t>지하102호 2호점</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7390,34 +7390,34 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 24-9 1층</t>
+          <t>서울 마포구 독막로3길 39 1층</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>0507-1383-1032</t>
+          <t>0507-1388-8648</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>별그리는바다</t>
+          <t>과일가게</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7427,17 +7427,17 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 17 1층</t>
+          <t>서울 마포구 동교로 40</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>0507-1361-4011</t>
+          <t>02-336-3859</t>
         </is>
       </c>
     </row>
@@ -7464,24 +7464,24 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>02-322-3634</t>
+          <t>0507-1363-3634</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>카사블랑코</t>
+          <t>버드폭</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7501,46 +7501,46 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>02-322-3634</t>
+          <t>0507-1370-0535</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>철판집</t>
+          <t>모이정</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 24-11 1층 철판집</t>
+          <t>서울 영등포구 양평로22길 21 1층 A106호</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'}), ('화', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'}), ('수', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'}), ('목', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'}), ('금', {'open_time': '17:00 - 02:30', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:30', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 01:30', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('화', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('수', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>0507-1483-9233</t>
+          <t>0507-1370-0535</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>버드폭</t>
+          <t>호랑이</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7550,29 +7550,29 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로22길 21 1층 A106호</t>
+          <t>서울 마포구 성지3길 23</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('화', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('수', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>0507-1370-0535</t>
+          <t>010-5567-1637</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>호랑이</t>
+          <t>시소</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7582,12 +7582,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로22길 21 1층 A106호</t>
+          <t>서울 마포구 성지3길 23</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7597,61 +7597,61 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>0507-1370-0535</t>
+          <t>010-5567-1637</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>시소</t>
+          <t>카사블랑코</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 43-1 3층 시소</t>
+          <t>서울 마포구 양화로1길 29 1층</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>0507-1412-8744</t>
+          <t>0507-1484-9596</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>이목</t>
+          <t>별그리는바다</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 43-1 3층 시소</t>
+          <t>서울 마포구 양화로1길 29 1층</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>0507-1412-8744</t>
+          <t>0507-1484-9596</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>모이정</t>
+          <t>88양자카야</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>서울 마포구 성미산로 122 1층</t>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7693,46 +7693,46 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>0507-1381-2885</t>
+          <t>0507-1336-2374</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>색다른한잔</t>
+          <t>철판집</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>서울 마포구 성미산로 122 1층</t>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0507-1381-2885</t>
+          <t>0507-1336-2374</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>술생술사</t>
+          <t>이목</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7742,61 +7742,61 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 51 술생술사</t>
+          <t>서울 마포구 독막로3길 17 2층</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '11:30 - 24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('화', {'open_time': '11:30 - 24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('수', {'open_time': '11:30 - 24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('목', {'open_time': '11:30 - 24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일(7/16)', {'open_time': '휴무', 'last_order_time': '3'})]</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-6404-0101</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>88양자카야</t>
+          <t>색다른한잔</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 독막로3길 17 2층</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>02-6404-0101</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>술생술사</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7806,12 +7806,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 독막로2길 35 1층 색다른한잔</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7821,14 +7821,14 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>펍차 아지트</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7838,22 +7838,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 독막로9길 33 반지하 0.5</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>0507-1409-0716</t>
         </is>
       </c>
     </row>
@@ -7870,29 +7870,29 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 독막로7길 23 4층</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>넉탐</t>
+          <t>펍차 아지트</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7902,108 +7902,108 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 독막로7길 23 4층</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>010-6559-2889</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>꿀벌</t>
+          <t>넉탐</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 동교로 177</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>010-6559-2889</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>아니키</t>
+          <t>꿀벌</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 어울마당로 43 2층</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 05:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00 - 22:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>0507-1386-8849</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>히게쯔라</t>
+          <t>바코포차</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 어울마당로 43 2층</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8013,14 +8013,14 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>0507-1386-8849</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>무니</t>
+          <t>히게쯔라</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8030,44 +8030,44 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
+          <t>서울 마포구 양화로1길 42 1층</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>0507-1336-2374</t>
+          <t>0507-1317-4883</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>바코포차</t>
+          <t>무니</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
+          <t>서울 마포구 양화로8길 32-15 1층</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8077,61 +8077,61 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>0507-1368-1337</t>
+          <t>070-4100-1510</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>7번방 룸포차</t>
+          <t>김씨네심야식당</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
+          <t>서울 마포구 양화로8길 32-15 1층</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'}), ('화', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'}), ('수', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'}), ('목', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'}), ('금', {'open_time': '17:30 - 01:00', 'last_order_time': '00:15'}), ('토', {'open_time': '17:30 - 01:00', 'last_order_time': '00:15'}), ('일', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'})]</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>0507-1368-1337</t>
+          <t>070-4100-1510</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>로타리</t>
+          <t>7번방 룸포차</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
+          <t>서울 마포구 어울마당로 62</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,14 +8141,14 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>0507-1368-1337</t>
+          <t>0507-1496-3554</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>김씨네심야식당</t>
+          <t>로타리</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8158,118 +8158,118 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
+          <t>서울 마포구 양화로 56 동양한강트레벨 b103-2 로타리</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0507-1368-1337</t>
+          <t>0507-1385-7823</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>정이포장마차</t>
+          <t>아니키</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
+          <t>서울 마포구 어울마당로5길 47 1층</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('월(7/17)', {'open_time': '제헌절17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>0507-1368-1337</t>
+          <t>0507-1355-4684</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>합정공감</t>
+          <t>정이포장마차</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
+          <t>서울 마포구 홍익로5안길 24 1층 102호 정이</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>0507-1368-1337</t>
+          <t>0507-1476-1286</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>형제집</t>
+          <t>합정공감</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
+          <t>서울 마포구 양화로6길 49 2F</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>0507-1368-1337</t>
+          <t>0507-1423-4733</t>
         </is>
       </c>
     </row>
@@ -8286,93 +8286,93 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
+          <t>서울 마포구 독막로7길 45 2층 초월집</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>0507-1368-1337</t>
+          <t>02-336-3328</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>천하의문타로</t>
+          <t>형제집</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 포은로 39 1층 형제집</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1489-2230</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>윤슬</t>
+          <t>지하102호 3호점</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 포은로 39 1층 형제집</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1489-2230</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>원나잇</t>
+          <t>그늘</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8382,29 +8382,29 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 독막로3길 33-3 지1층 그늘</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1341-8480</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>지하102호 3호점</t>
+          <t>남자식탁</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8429,78 +8429,78 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1324-3035</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>그늘</t>
+          <t>천하의문타로</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1324-3035</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>남자식탁</t>
+          <t>원나잇</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 홍익로3길 44 러쉬 홍대점 건물(호곡빌딩) 5층</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1426-0912</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>추자로557</t>
+          <t>올드타운 홍대점</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8510,29 +8510,29 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 홍익로3길 44 러쉬 홍대점 건물(호곡빌딩) 5층</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1426-0912</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>돌포차 Dorrr</t>
+          <t>윤슬</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8542,76 +8542,76 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 독막로4길 9 1층 가운데 검정문</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>02-6081-2200</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>올드타운 홍대점</t>
+          <t>파리아저씨</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 독막로4길 9 1층 가운데 검정문</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>02-6081-2200</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>작가 홍대본점</t>
+          <t>지하102호 5호점</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 독막로3길 13 1층, 2층, 3층</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8621,14 +8621,14 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1357-1025</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>지하102호 5호점</t>
+          <t>추자로557</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8638,29 +8638,29 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 양화로8길 14</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1355-5575</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>아크틱</t>
+          <t>작가 홍대본점</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -8670,29 +8670,29 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 양화로8길 14</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1355-5575</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>파리아저씨</t>
+          <t>돌포차 Dorrr</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8702,22 +8702,22 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
+          <t>서울 마포구 독막로3길 18 202호</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>02-336-3009</t>
+          <t>0507-1360-0536</t>
         </is>
       </c>
     </row>

--- a/excel/망원_processed.xlsx
+++ b/excel/망원_processed.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '18:30-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:30-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:30-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절19:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '제헌절10:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30-23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30-23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '10:00-20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '제헌절10:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30-23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30-23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '10:00-20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '14:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '14:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-21:50', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-21:50', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:30 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:30 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '17:30-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:30-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:30-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('수', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('목', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('금', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('토', {'open_time': '14:00 - 05:00', 'last_order_time': '04:00'}), ('일', {'open_time': '14:00 - 05:00', 'last_order_time': '04:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-29:00', 'last_order_time': '04:00'}), ('수', {'open_time': '19:00-29:00', 'last_order_time': '04:00'}), ('목', {'open_time': '19:00-29:00', 'last_order_time': '04:00'}), ('금', {'open_time': '19:00-29:00', 'last_order_time': '04:00'}), ('토', {'open_time': '14:00-29:00', 'last_order_time': '04:00'}), ('일', {'open_time': '14:00-29:00', 'last_order_time': '04:00'})]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절12:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금(7/14)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토(7/15)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-25:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금(7/14)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토(7/15)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-23:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 21:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절14:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00-21:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '14:00-20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00-23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00-23:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('수(7/12)', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '12:00-25:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00-25:00', 'last_order_time': '00:30'}), ('수(7/12)', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:30 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '18:30-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:30-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:30-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절19:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '제헌절10:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30-23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30-23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '10:00-20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30 - 23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '제헌절10:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('수', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-23:30', 'last_order_time': '22:30'}), ('토', {'open_time': '17:30-23:30', 'last_order_time': '22:30'}), ('일', {'open_time': '17:30-23:30', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '10:00-20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '14:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '14:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '14:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 21:50', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-21:50', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-21:50', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:30 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:30 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:30 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '17:30-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:30-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:30-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('수', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('목', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('금', {'open_time': '19:00 - 05:00', 'last_order_time': '04:00'}), ('토', {'open_time': '14:00 - 05:00', 'last_order_time': '04:00'}), ('일', {'open_time': '14:00 - 05:00', 'last_order_time': '04:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-29:00', 'last_order_time': '04:00'}), ('수', {'open_time': '19:00-29:00', 'last_order_time': '04:00'}), ('목', {'open_time': '19:00-29:00', 'last_order_time': '04:00'}), ('금', {'open_time': '19:00-29:00', 'last_order_time': '04:00'}), ('토', {'open_time': '14:00-29:00', 'last_order_time': '04:00'}), ('일', {'open_time': '14:00-29:00', 'last_order_time': '04:00'})]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절12:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금(7/14)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토(7/15)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-25:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금(7/14)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토(7/15)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-23:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 21:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절14:00 - 20:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-23:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-23:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-23:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00-21:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '14:00-20:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 23:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-23:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00-23:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00-23:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:30'}), ('수(7/12)', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '12:00-25:00', 'last_order_time': '00:30'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '12:00-25:00', 'last_order_time': '00:30'}), ('수(7/12)', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'}), ('목(7/13)', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 05:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 05:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절16:00 - 05:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '15:00 - 24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '15:00 - 22:00', 'last_order_time': '21:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '15:00-24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '15:00-22:00', 'last_order_time': '21:30'})]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '05:00 - 06:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '05:00-06:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('수', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('목', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('금', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('토', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('일', {'open_time': '15:00 - 05:00', 'last_order_time': '04:30'}), ('월(7/17)', {'open_time': '제헌절15:00 - 05:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-29:00', 'last_order_time': '04:30'}), ('수', {'open_time': '15:00-29:00', 'last_order_time': '04:30'}), ('목', {'open_time': '15:00-29:00', 'last_order_time': '04:30'}), ('금', {'open_time': '15:00-29:00', 'last_order_time': '04:30'}), ('토', {'open_time': '15:00-29:00', 'last_order_time': '04:30'}), ('일', {'open_time': '15:00-29:00', 'last_order_time': '04:30'}), ('월(7/17)', {'open_time': '15:00-29:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('수', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('목', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('금', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('토', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'}), ('일', {'open_time': '14:00 - 22:00', 'last_order_time': '21:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '14:00-22:00', 'last_order_time': '21:30'}), ('수', {'open_time': '14:00-22:00', 'last_order_time': '21:30'}), ('목', {'open_time': '14:00-22:00', 'last_order_time': '21:30'}), ('금', {'open_time': '14:00-22:00', 'last_order_time': '21:30'}), ('토', {'open_time': '14:00-22:00', 'last_order_time': '21:30'}), ('일', {'open_time': '14:00-22:00', 'last_order_time': '21:30'})]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '12:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '12:00 - 18:00', 'last_order_time': '17:00'})]</t>
+          <t>[('월', {'open_time': '12:00-23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00-23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '12:00-23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '12:00-23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '12:00-23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '12:00-18:00', 'last_order_time': '17:00'})]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '11:30-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '11:30-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절19:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '19:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('수', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('토', {'open_time': '16:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '제헌절16:00 - 23:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('수', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('목', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('금', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 18:00 브레이크타임'}), ('토', {'open_time': '16:00-23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '16:00-23:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '19:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('월(7/17)', {'open_time': '제헌절19:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '19:00-26:00', 'last_order_time': '01:30'}), ('목', {'open_time': '19:00-26:00', 'last_order_time': '01:30'}), ('금', {'open_time': '19:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '19:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '19:00-24:00', 'last_order_time': '23:30'}), ('월(7/17)', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '00:00 - 00:05', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '00:00-00:05', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('금', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30 - 22:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30-22:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '11:30-22:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30-22:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30-22:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30-22:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30-22:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '23:50'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '23:50'}), ('목', {'open_time': '15:00-25:00', 'last_order_time': '23:50'}), ('금', {'open_time': '15:00-25:00', 'last_order_time': '23:50'}), ('토', {'open_time': '15:00-25:00', 'last_order_time': '23:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('화', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '19:00 - 24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '15:30 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '15:30 - 17:00 브레이크타임'})]</t>
+          <t>[('월', {'open_time': '19:00-24:00', 'last_order_time': '23:30'}), ('화', {'open_time': '19:00-24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '19:00-24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '12:00-24:00', 'last_order_time': '15:30 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00-24:00', 'last_order_time': '15:30 - 17:00 브레이크타임'})]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-29:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '13:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '13:00 - 24:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '13:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '13:00-24:00', 'last_order_time': '23:30'})]</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
+          <t>[('월', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00-36:30', 'last_order_time': '11:50'})]</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-30:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-30:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-30:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-30:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-30:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-30:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-30:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '21:30'}), ('화(7/18)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00-23:00', 'last_order_time': '21:30'}), ('화(7/18)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('월(7/17)', {'open_time': '제헌절17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('월(7/17)', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '15:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '15:00-27:00', 'last_order_time': '02:00'})]</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '16:00 - 02:30', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 02:30', 'last_order_time': '02:00'}), ('일', {'open_time': '15:30 - 01:00', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '16:00-25:00', 'last_order_time': '00:30'}), ('화', {'open_time': '16:00-25:00', 'last_order_time': '00:30'}), ('수', {'open_time': '16:00-25:00', 'last_order_time': '00:30'}), ('목', {'open_time': '16:00-25:00', 'last_order_time': '00:30'}), ('금', {'open_time': '16:00-26:30', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00-26:30', 'last_order_time': '02:00'}), ('일', {'open_time': '15:30-25:00', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-26:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('화', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('수', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('목', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('금', {'open_time': '16:30 - 05:00', 'last_order_time': '04:00'}), ('토', {'open_time': '15:30 - 05:00', 'last_order_time': '04:00'}), ('일', {'open_time': '15:30 - 05:00', 'last_order_time': '04:00'})]</t>
+          <t>[('월', {'open_time': '16:30-29:00', 'last_order_time': '04:00'}), ('화', {'open_time': '16:30-29:00', 'last_order_time': '04:00'}), ('수', {'open_time': '16:30-29:00', 'last_order_time': '04:00'}), ('목', {'open_time': '16:30-29:00', 'last_order_time': '04:00'}), ('금', {'open_time': '16:30-29:00', 'last_order_time': '04:00'}), ('토', {'open_time': '15:30-29:00', 'last_order_time': '04:00'}), ('일', {'open_time': '15:30-29:00', 'last_order_time': '04:00'})]</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('화', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('수', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '11:30-23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('화', {'open_time': '11:30-23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('수', {'open_time': '11:30-23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('목', {'open_time': '11:30-23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30-23:00', 'last_order_time': '14:00 - 17:00 브레이크타임'}), ('토', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '11:30 - 24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('화', {'open_time': '11:30 - 24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('수', {'open_time': '11:30 - 24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('목', {'open_time': '11:30 - 24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일(7/16)', {'open_time': '휴무', 'last_order_time': '3'})]</t>
+          <t>[('월', {'open_time': '11:30-24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('화', {'open_time': '11:30-24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('수', {'open_time': '11:30-24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('목', {'open_time': '11:30-24:00', 'last_order_time': '14:30 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일(7/16)', {'open_time': '휴무', 'last_order_time': '3'})]</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 05:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 05:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00 - 22:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00-29:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00-22:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '16:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '16:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '16:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '16:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'}), ('화', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'}), ('수', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'}), ('목', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'}), ('금', {'open_time': '17:30 - 01:00', 'last_order_time': '00:15'}), ('토', {'open_time': '17:30 - 01:00', 'last_order_time': '00:15'}), ('일', {'open_time': '17:30 - 24:00', 'last_order_time': '23:15'})]</t>
+          <t>[('월', {'open_time': '17:30-24:00', 'last_order_time': '23:15'}), ('화', {'open_time': '17:30-24:00', 'last_order_time': '23:15'}), ('수', {'open_time': '17:30-24:00', 'last_order_time': '23:15'}), ('목', {'open_time': '17:30-24:00', 'last_order_time': '23:15'}), ('금', {'open_time': '17:30-25:00', 'last_order_time': '00:15'}), ('토', {'open_time': '17:30-25:00', 'last_order_time': '00:15'}), ('일', {'open_time': '17:30-24:00', 'last_order_time': '23:15'})]</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00-34:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-34:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-34:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-34:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-34:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-34:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-34:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
+          <t>[('월', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00-36:30', 'last_order_time': '11:50'})]</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('월(7/17)', {'open_time': '제헌절17:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('월(7/17)', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00-27:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-27:00', 'last_order_time': '01:30'}), ('화', {'open_time': '16:00-27:00', 'last_order_time': '01:30'}), ('수', {'open_time': '16:00-27:00', 'last_order_time': '01:30'}), ('목', {'open_time': '16:00-27:00', 'last_order_time': '01:30'}), ('금', {'open_time': '16:00-27:00', 'last_order_time': '01:30'}), ('토', {'open_time': '16:00-27:00', 'last_order_time': '01:30'}), ('일', {'open_time': '16:00-27:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '14:00-30:00', 'last_order_time': '05:30'}), ('화', {'open_time': '14:00-30:00', 'last_order_time': '05:30'}), ('수', {'open_time': '14:00-30:00', 'last_order_time': '05:30'}), ('목', {'open_time': '14:00-30:00', 'last_order_time': '05:30'}), ('금', {'open_time': '14:00-30:00', 'last_order_time': '05:30'}), ('토', {'open_time': '14:00-30:00', 'last_order_time': '05:30'}), ('일', {'open_time': '14:00-30:00', 'last_order_time': '05:30'})]</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">

--- a/excel/망원_processed.xlsx
+++ b/excel/망원_processed.xlsx
@@ -546,10 +546,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>263</v>
@@ -646,10 +644,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>63</v>
@@ -746,10 +742,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>508</v>
@@ -846,10 +840,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>392</v>
@@ -946,10 +938,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>623</v>
@@ -1046,10 +1036,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C7" t="n">
+        <v>4.39</v>
       </c>
       <c r="D7" t="n">
         <v>824</v>
@@ -1146,10 +1134,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C8" t="n">
+        <v>4.39</v>
       </c>
       <c r="D8" t="n">
         <v>824</v>
@@ -1246,10 +1232,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+      <c r="C9" t="n">
+        <v>4.55</v>
       </c>
       <c r="D9" t="n">
         <v>584</v>
@@ -1346,10 +1330,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C10" t="n">
+        <v>4.6</v>
       </c>
       <c r="D10" t="n">
         <v>504</v>
@@ -1446,10 +1428,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C11" t="n">
+        <v>4.6</v>
       </c>
       <c r="D11" t="n">
         <v>504</v>
@@ -1546,10 +1526,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C12" t="n">
+        <v>4.61</v>
       </c>
       <c r="D12" t="n">
         <v>257</v>
@@ -1646,10 +1624,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
+      <c r="C13" t="n">
+        <v>4.75</v>
       </c>
       <c r="D13" t="n">
         <v>233</v>
@@ -1746,10 +1722,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>295</v>
@@ -1846,10 +1820,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
+      <c r="C15" t="n">
+        <v>4.23</v>
       </c>
       <c r="D15" t="n">
         <v>225</v>
@@ -1946,10 +1918,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
+      <c r="C16" t="n">
+        <v>4.23</v>
       </c>
       <c r="D16" t="n">
         <v>225</v>
@@ -2046,10 +2016,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C17" t="n">
+        <v>4.61</v>
       </c>
       <c r="D17" t="n">
         <v>614</v>
@@ -2146,10 +2114,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C18" t="n">
+        <v>4.7</v>
       </c>
       <c r="D18" t="n">
         <v>223</v>
@@ -2246,10 +2212,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C19" t="n">
+        <v>4.7</v>
       </c>
       <c r="D19" t="n">
         <v>223</v>
@@ -2346,10 +2310,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>111</v>
@@ -2446,10 +2408,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>106</v>
@@ -2546,10 +2506,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>105</v>
@@ -2646,10 +2604,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>263</v>
@@ -2746,10 +2702,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>87</v>
@@ -2846,10 +2800,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>40</v>
@@ -2946,10 +2898,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>61</v>
@@ -3046,10 +2996,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>81</v>
@@ -3146,10 +3094,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>223</v>
@@ -3246,10 +3192,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
+      <c r="C29" t="n">
+        <v>4.82</v>
       </c>
       <c r="D29" t="n">
         <v>780</v>
@@ -3346,10 +3290,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
+      <c r="C30" t="n">
+        <v>4.82</v>
       </c>
       <c r="D30" t="n">
         <v>780</v>
@@ -3446,10 +3388,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
+      <c r="C31" t="n">
+        <v>4.3</v>
       </c>
       <c r="D31" t="n">
         <v>298</v>
@@ -3546,10 +3486,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
+      <c r="C32" t="n">
+        <v>4.38</v>
       </c>
       <c r="D32" t="n">
         <v>292</v>
@@ -3646,10 +3584,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="C33" t="n">
+        <v>4.54</v>
       </c>
       <c r="D33" t="n">
         <v>351</v>
@@ -3746,10 +3682,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
+      <c r="C34" t="n">
+        <v>4.58</v>
       </c>
       <c r="D34" t="n">
         <v>249</v>
@@ -3846,10 +3780,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
+      <c r="C35" t="n">
+        <v>4.58</v>
       </c>
       <c r="D35" t="n">
         <v>249</v>
@@ -3946,10 +3878,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C36" t="n">
+        <v>4.96</v>
       </c>
       <c r="D36" t="n">
         <v>534</v>
@@ -4046,10 +3976,8 @@
           <t>오뎅,꼬치</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C37" t="n">
+        <v>4.96</v>
       </c>
       <c r="D37" t="n">
         <v>534</v>
@@ -4146,10 +4074,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
+      <c r="C38" t="n">
+        <v>4.48</v>
       </c>
       <c r="D38" t="n">
         <v>604</v>
@@ -4246,10 +4172,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C39" t="n">
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>59</v>
@@ -4346,10 +4270,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C40" t="n">
+        <v>4.93</v>
       </c>
       <c r="D40" t="n">
         <v>256</v>
@@ -4446,10 +4368,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C41" t="n">
+        <v>4.93</v>
       </c>
       <c r="D41" t="n">
         <v>256</v>
@@ -4546,10 +4466,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C42" t="n">
+        <v>4.6</v>
       </c>
       <c r="D42" t="n">
         <v>234</v>
@@ -4646,10 +4564,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C43" t="n">
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>99</v>
@@ -4746,10 +4662,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C44" t="n">
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>40</v>
@@ -4846,10 +4760,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C45" t="n">
+        <v>4.6</v>
       </c>
       <c r="D45" t="n">
         <v>518</v>
@@ -4946,10 +4858,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C46" t="n">
+        <v>4.6</v>
       </c>
       <c r="D46" t="n">
         <v>518</v>
@@ -5046,10 +4956,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C47" t="n">
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>142</v>
@@ -5146,10 +5054,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C48" t="n">
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>82</v>
@@ -5246,10 +5152,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C49" t="n">
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>88</v>
@@ -5346,10 +5250,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C50" t="n">
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>198</v>
@@ -5446,10 +5348,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C51" t="n">
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>198</v>
@@ -5546,10 +5446,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="C52" t="n">
+        <v>4.54</v>
       </c>
       <c r="D52" t="n">
         <v>187</v>
@@ -5646,10 +5544,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
+      <c r="C53" t="n">
+        <v>4.82</v>
       </c>
       <c r="D53" t="n">
         <v>398</v>
@@ -5746,10 +5642,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C54" t="n">
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>18</v>
@@ -5846,10 +5740,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
+      <c r="C55" t="n">
+        <v>4.19</v>
       </c>
       <c r="D55" t="n">
         <v>332</v>
@@ -5946,10 +5838,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
+      <c r="C56" t="n">
+        <v>4.19</v>
       </c>
       <c r="D56" t="n">
         <v>332</v>
@@ -6046,10 +5936,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C57" t="n">
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>63</v>
@@ -6146,10 +6034,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C58" t="n">
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>508</v>
@@ -6246,10 +6132,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C59" t="n">
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>392</v>
@@ -6346,10 +6230,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C60" t="n">
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>623</v>
@@ -6446,10 +6328,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C61" t="n">
+        <v>4.39</v>
       </c>
       <c r="D61" t="n">
         <v>824</v>
@@ -6546,10 +6426,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C62" t="n">
+        <v>4.39</v>
       </c>
       <c r="D62" t="n">
         <v>824</v>
@@ -6646,10 +6524,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+      <c r="C63" t="n">
+        <v>4.55</v>
       </c>
       <c r="D63" t="n">
         <v>584</v>
@@ -6746,10 +6622,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C64" t="n">
+        <v>4.6</v>
       </c>
       <c r="D64" t="n">
         <v>504</v>
@@ -6846,10 +6720,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C65" t="n">
+        <v>4.6</v>
       </c>
       <c r="D65" t="n">
         <v>504</v>
@@ -6946,10 +6818,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C66" t="n">
+        <v>4.61</v>
       </c>
       <c r="D66" t="n">
         <v>257</v>
@@ -7046,10 +6916,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
+      <c r="C67" t="n">
+        <v>4.75</v>
       </c>
       <c r="D67" t="n">
         <v>233</v>
@@ -7146,10 +7014,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C68" t="n">
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>295</v>
@@ -7246,10 +7112,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
+      <c r="C69" t="n">
+        <v>4.23</v>
       </c>
       <c r="D69" t="n">
         <v>225</v>
@@ -7346,10 +7210,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
+      <c r="C70" t="n">
+        <v>4.23</v>
       </c>
       <c r="D70" t="n">
         <v>225</v>
@@ -7446,10 +7308,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C71" t="n">
+        <v>4.61</v>
       </c>
       <c r="D71" t="n">
         <v>614</v>
@@ -7546,10 +7406,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C72" t="n">
+        <v>4.7</v>
       </c>
       <c r="D72" t="n">
         <v>223</v>
@@ -7646,10 +7504,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C73" t="n">
+        <v>4.7</v>
       </c>
       <c r="D73" t="n">
         <v>223</v>
@@ -7746,10 +7602,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C74" t="n">
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>111</v>
@@ -7846,10 +7700,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C75" t="n">
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>106</v>
@@ -7946,10 +7798,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C76" t="n">
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>105</v>
@@ -8046,10 +7896,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C77" t="n">
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>263</v>
@@ -8146,10 +7994,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C78" t="n">
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>87</v>
@@ -8246,10 +8092,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C79" t="n">
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>40</v>
@@ -8346,10 +8190,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C80" t="n">
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>61</v>
@@ -8446,10 +8288,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C81" t="n">
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>81</v>
@@ -8546,10 +8386,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C82" t="n">
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>223</v>
@@ -8646,10 +8484,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
+      <c r="C83" t="n">
+        <v>4.82</v>
       </c>
       <c r="D83" t="n">
         <v>780</v>
@@ -8746,10 +8582,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
+      <c r="C84" t="n">
+        <v>4.82</v>
       </c>
       <c r="D84" t="n">
         <v>780</v>
@@ -8846,10 +8680,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
+      <c r="C85" t="n">
+        <v>4.3</v>
       </c>
       <c r="D85" t="n">
         <v>298</v>
@@ -8946,10 +8778,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
+      <c r="C86" t="n">
+        <v>4.38</v>
       </c>
       <c r="D86" t="n">
         <v>292</v>
@@ -9046,10 +8876,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="C87" t="n">
+        <v>4.54</v>
       </c>
       <c r="D87" t="n">
         <v>351</v>
@@ -9146,10 +8974,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
+      <c r="C88" t="n">
+        <v>4.58</v>
       </c>
       <c r="D88" t="n">
         <v>249</v>
@@ -9246,10 +9072,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
+      <c r="C89" t="n">
+        <v>4.58</v>
       </c>
       <c r="D89" t="n">
         <v>249</v>
@@ -9346,10 +9170,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C90" t="n">
+        <v>4.96</v>
       </c>
       <c r="D90" t="n">
         <v>534</v>
@@ -9446,10 +9268,8 @@
           <t>오뎅,꼬치</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C91" t="n">
+        <v>4.96</v>
       </c>
       <c r="D91" t="n">
         <v>534</v>
@@ -9546,10 +9366,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
+      <c r="C92" t="n">
+        <v>4.48</v>
       </c>
       <c r="D92" t="n">
         <v>604</v>
@@ -9646,10 +9464,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C93" t="n">
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>59</v>
@@ -9746,10 +9562,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C94" t="n">
+        <v>4.93</v>
       </c>
       <c r="D94" t="n">
         <v>256</v>
@@ -9846,10 +9660,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C95" t="n">
+        <v>4.93</v>
       </c>
       <c r="D95" t="n">
         <v>256</v>
@@ -9946,10 +9758,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C96" t="n">
+        <v>4.6</v>
       </c>
       <c r="D96" t="n">
         <v>234</v>
@@ -10046,10 +9856,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C97" t="n">
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>99</v>
@@ -10146,10 +9954,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C98" t="n">
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>40</v>
@@ -10246,10 +10052,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C99" t="n">
+        <v>4.6</v>
       </c>
       <c r="D99" t="n">
         <v>518</v>
@@ -10346,10 +10150,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C100" t="n">
+        <v>4.6</v>
       </c>
       <c r="D100" t="n">
         <v>518</v>
@@ -10446,10 +10248,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C101" t="n">
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>142</v>
@@ -10546,10 +10346,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C102" t="n">
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>82</v>
@@ -10646,10 +10444,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C103" t="n">
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>88</v>
@@ -10746,10 +10542,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C104" t="n">
+        <v>5</v>
       </c>
       <c r="D104" t="n">
         <v>198</v>
@@ -10846,10 +10640,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C105" t="n">
+        <v>5</v>
       </c>
       <c r="D105" t="n">
         <v>198</v>
@@ -10946,10 +10738,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="C106" t="n">
+        <v>4.54</v>
       </c>
       <c r="D106" t="n">
         <v>187</v>
@@ -11046,10 +10836,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
+      <c r="C107" t="n">
+        <v>4.82</v>
       </c>
       <c r="D107" t="n">
         <v>398</v>
@@ -11146,10 +10934,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C108" t="n">
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>18</v>
@@ -11246,10 +11032,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
+      <c r="C109" t="n">
+        <v>4.19</v>
       </c>
       <c r="D109" t="n">
         <v>332</v>
@@ -11346,10 +11130,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
+      <c r="C110" t="n">
+        <v>4.19</v>
       </c>
       <c r="D110" t="n">
         <v>332</v>
@@ -11446,10 +11228,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="C111" t="n">
+        <v>4.45</v>
       </c>
       <c r="D111" t="n">
         <v>411</v>
@@ -11546,10 +11326,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
+      <c r="C112" t="n">
+        <v>4.92</v>
       </c>
       <c r="D112" t="n">
         <v>197</v>
@@ -11646,10 +11424,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
+      <c r="C113" t="n">
+        <v>4.92</v>
       </c>
       <c r="D113" t="n">
         <v>197</v>
@@ -11746,10 +11522,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
+      <c r="C114" t="n">
+        <v>4.52</v>
       </c>
       <c r="D114" t="n">
         <v>372</v>
@@ -11846,10 +11620,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C115" t="n">
+        <v>4.39</v>
       </c>
       <c r="D115" t="n">
         <v>761</v>
@@ -11946,10 +11718,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C116" t="n">
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>74</v>
@@ -12046,10 +11816,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C117" t="n">
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>85</v>
@@ -12146,10 +11914,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C118" t="n">
+        <v>4.93</v>
       </c>
       <c r="D118" t="n">
         <v>606</v>
@@ -12246,10 +12012,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C119" t="n">
+        <v>4.93</v>
       </c>
       <c r="D119" t="n">
         <v>606</v>
@@ -12346,10 +12110,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
+      <c r="C120" t="n">
+        <v>4.92</v>
       </c>
       <c r="D120" t="n">
         <v>119</v>
@@ -12446,10 +12208,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
+      <c r="C121" t="n">
+        <v>4.4</v>
       </c>
       <c r="D121" t="n">
         <v>87</v>
@@ -12546,10 +12306,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
+      <c r="C122" t="n">
+        <v>4.4</v>
       </c>
       <c r="D122" t="n">
         <v>87</v>
@@ -12646,10 +12404,8 @@
           <t>전통,민속주점</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
+      <c r="C123" t="n">
+        <v>4.91</v>
       </c>
       <c r="D123" t="n">
         <v>128</v>
@@ -12746,10 +12502,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="C124" t="n">
+        <v>4.45</v>
       </c>
       <c r="D124" t="n">
         <v>120</v>
@@ -12846,10 +12600,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
+      <c r="C125" t="n">
+        <v>4.84</v>
       </c>
       <c r="D125" t="n">
         <v>128</v>
@@ -12946,10 +12698,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
+      <c r="C126" t="n">
+        <v>4.84</v>
       </c>
       <c r="D126" t="n">
         <v>128</v>
@@ -13046,10 +12796,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C127" t="n">
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>58</v>
@@ -13146,10 +12894,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C128" t="n">
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>240</v>
@@ -13246,10 +12992,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
+      <c r="C129" t="n">
+        <v>4.59</v>
       </c>
       <c r="D129" t="n">
         <v>284</v>
@@ -13346,10 +13090,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
+      <c r="C130" t="n">
+        <v>4.59</v>
       </c>
       <c r="D130" t="n">
         <v>284</v>
@@ -13446,10 +13188,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C131" t="n">
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>54</v>
@@ -13546,10 +13286,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
+      <c r="C132" t="n">
+        <v>4.91</v>
       </c>
       <c r="D132" t="n">
         <v>107</v>
@@ -13646,10 +13384,8 @@
           <t>전통,민속주점</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
+      <c r="C133" t="n">
+        <v>4.91</v>
       </c>
       <c r="D133" t="n">
         <v>107</v>
@@ -13746,10 +13482,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="C134" t="n">
+        <v>4.51</v>
       </c>
       <c r="D134" t="n">
         <v>264</v>
@@ -13846,10 +13580,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
+      <c r="C135" t="n">
+        <v>4.99</v>
       </c>
       <c r="D135" t="n">
         <v>170</v>
@@ -13946,10 +13678,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
+      <c r="C136" t="n">
+        <v>4.75</v>
       </c>
       <c r="D136" t="n">
         <v>84</v>
@@ -14046,10 +13776,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
+      <c r="C137" t="n">
+        <v>4.69</v>
       </c>
       <c r="D137" t="n">
         <v>106</v>
@@ -14146,10 +13874,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
+      <c r="C138" t="n">
+        <v>4.69</v>
       </c>
       <c r="D138" t="n">
         <v>106</v>
@@ -14246,10 +13972,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C139" t="n">
+        <v>0</v>
       </c>
       <c r="D139" t="n">
         <v>77</v>
@@ -14346,10 +14070,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
+      <c r="C140" t="n">
+        <v>4.32</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -14446,10 +14168,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
+      <c r="C141" t="n">
+        <v>4.32</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -14546,10 +14266,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C142" t="n">
+        <v>4.96</v>
       </c>
       <c r="D142" t="n">
         <v>137</v>
@@ -14646,10 +14364,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
+      <c r="C143" t="n">
+        <v>4.14</v>
       </c>
       <c r="D143" t="n">
         <v>92</v>
@@ -14746,10 +14462,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="C144" t="n">
+        <v>4.45</v>
       </c>
       <c r="D144" t="n">
         <v>117</v>
@@ -14846,10 +14560,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
+      <c r="C145" t="n">
+        <v>4.76</v>
       </c>
       <c r="D145" t="n">
         <v>108</v>
@@ -14946,10 +14658,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C146" t="n">
+        <v>4.39</v>
       </c>
       <c r="D146" t="n">
         <v>68</v>
@@ -15046,10 +14756,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
+      <c r="C147" t="n">
+        <v>4.72</v>
       </c>
       <c r="D147" t="n">
         <v>196</v>
@@ -15146,10 +14854,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
+      <c r="C148" t="n">
+        <v>4.88</v>
       </c>
       <c r="D148" t="n">
         <v>87</v>
@@ -15246,10 +14952,8 @@
           <t>오뎅,꼬치</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
+      <c r="C149" t="n">
+        <v>4.88</v>
       </c>
       <c r="D149" t="n">
         <v>87</v>
@@ -15346,10 +15050,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
+      <c r="C150" t="n">
+        <v>4.38</v>
       </c>
       <c r="D150" t="n">
         <v>265</v>
@@ -15446,10 +15148,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C151" t="n">
+        <v>0</v>
       </c>
       <c r="D151" t="n">
         <v>14</v>
@@ -15546,10 +15246,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
+      <c r="C152" t="n">
+        <v>4.91</v>
       </c>
       <c r="D152" t="n">
         <v>92</v>
@@ -15646,10 +15344,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
+      <c r="C153" t="n">
+        <v>4.91</v>
       </c>
       <c r="D153" t="n">
         <v>92</v>
@@ -15746,10 +15442,8 @@
           <t>오뎅,꼬치</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
+      <c r="C154" t="n">
+        <v>4.71</v>
       </c>
       <c r="D154" t="n">
         <v>33</v>
@@ -15846,10 +15540,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="C155" t="n">
+        <v>4.45</v>
       </c>
       <c r="D155" t="n">
         <v>140</v>
@@ -15946,10 +15638,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
+      <c r="C156" t="n">
+        <v>4.24</v>
       </c>
       <c r="D156" t="n">
         <v>81</v>
@@ -16046,10 +15736,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
+      <c r="C157" t="n">
+        <v>4.24</v>
       </c>
       <c r="D157" t="n">
         <v>81</v>
@@ -16146,10 +15834,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
+      <c r="C158" t="n">
+        <v>3.83</v>
       </c>
       <c r="D158" t="n">
         <v>32</v>
@@ -16246,10 +15932,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
+      <c r="C159" t="n">
+        <v>4.31</v>
       </c>
       <c r="D159" t="n">
         <v>87</v>
@@ -16346,10 +16030,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="C160" t="n">
+        <v>4.51</v>
       </c>
       <c r="D160" t="n">
         <v>61</v>
@@ -16446,10 +16128,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="C161" t="n">
+        <v>4.51</v>
       </c>
       <c r="D161" t="n">
         <v>61</v>
@@ -16546,10 +16226,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
+      <c r="C162" t="n">
+        <v>4.13</v>
       </c>
       <c r="D162" t="n">
         <v>64</v>
@@ -16646,10 +16324,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
+      <c r="C163" t="n">
+        <v>4.13</v>
       </c>
       <c r="D163" t="n">
         <v>64</v>
@@ -16746,10 +16422,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C164" t="n">
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>47</v>
@@ -16846,10 +16520,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
+      <c r="C165" t="n">
+        <v>4.81</v>
       </c>
       <c r="D165" t="n">
         <v>71</v>
@@ -16946,10 +16618,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
+      <c r="C166" t="n">
+        <v>4.81</v>
       </c>
       <c r="D166" t="n">
         <v>71</v>
@@ -17046,10 +16716,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C167" t="n">
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>37</v>
@@ -17146,10 +16814,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
+      <c r="C168" t="n">
+        <v>4.2</v>
       </c>
       <c r="D168" t="n">
         <v>89</v>
@@ -17246,10 +16912,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
+      <c r="C169" t="n">
+        <v>4.2</v>
       </c>
       <c r="D169" t="n">
         <v>89</v>
@@ -17346,10 +17010,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
+      <c r="C170" t="n">
+        <v>4.33</v>
       </c>
       <c r="D170" t="n">
         <v>47</v>
@@ -17446,10 +17108,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
+      <c r="C171" t="n">
+        <v>4.33</v>
       </c>
       <c r="D171" t="n">
         <v>47</v>
@@ -17546,10 +17206,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
+      <c r="C172" t="n">
+        <v>4.11</v>
       </c>
       <c r="D172" t="n">
         <v>108</v>
@@ -17646,10 +17304,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C173" t="n">
+        <v>0</v>
       </c>
       <c r="D173" t="n">
         <v>2</v>
@@ -17746,10 +17402,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
+      <c r="C174" t="n">
+        <v>4.35</v>
       </c>
       <c r="D174" t="n">
         <v>74</v>
@@ -17846,10 +17500,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
+      <c r="C175" t="n">
+        <v>4.35</v>
       </c>
       <c r="D175" t="n">
         <v>74</v>
@@ -17946,10 +17598,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
+      <c r="C176" t="n">
+        <v>4.33</v>
       </c>
       <c r="D176" t="n">
         <v>55</v>
@@ -18046,10 +17696,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C177" t="n">
+        <v>4</v>
       </c>
       <c r="D177" t="n">
         <v>77</v>
@@ -18146,10 +17794,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+      <c r="C178" t="n">
+        <v>4.5</v>
       </c>
       <c r="D178" t="n">
         <v>15</v>
@@ -18246,10 +17892,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+      <c r="C179" t="n">
+        <v>4.5</v>
       </c>
       <c r="D179" t="n">
         <v>15</v>
@@ -18346,10 +17990,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C180" t="n">
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>3</v>
@@ -18446,10 +18088,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C181" t="n">
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -18546,10 +18186,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C182" t="n">
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>4</v>
@@ -18646,10 +18284,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C183" t="n">
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>3</v>
@@ -18746,10 +18382,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C184" t="n">
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>14</v>
@@ -18846,10 +18480,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C185" t="n">
+        <v>0</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -18946,10 +18578,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C186" t="n">
+        <v>0</v>
       </c>
       <c r="D186" t="n">
         <v>7</v>
@@ -19046,10 +18676,8 @@
           <t>단란주점</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C187" t="n">
+        <v>0</v>
       </c>
       <c r="D187" t="n">
         <v>2</v>
@@ -19146,10 +18774,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C188" t="n">
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -19246,10 +18872,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C189" t="n">
+        <v>0</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -19346,10 +18970,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
+      <c r="C190" t="n">
+        <v>4.36</v>
       </c>
       <c r="D190" t="n">
         <v>440</v>
@@ -19446,10 +19068,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
+      <c r="C191" t="n">
+        <v>4.36</v>
       </c>
       <c r="D191" t="n">
         <v>440</v>
@@ -19546,10 +19166,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
+      <c r="C192" t="n">
+        <v>4.75</v>
       </c>
       <c r="D192" t="n">
         <v>926</v>
@@ -19646,10 +19264,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C193" t="n">
+        <v>4.89</v>
       </c>
       <c r="D193" t="n">
         <v>1206</v>
@@ -19746,10 +19362,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C194" t="n">
+        <v>4.89</v>
       </c>
       <c r="D194" t="n">
         <v>1206</v>
@@ -19846,10 +19460,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
+      <c r="C195" t="n">
+        <v>4.53</v>
       </c>
       <c r="D195" t="n">
         <v>497</v>
@@ -19946,10 +19558,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
+      <c r="C196" t="n">
+        <v>4.53</v>
       </c>
       <c r="D196" t="n">
         <v>497</v>
@@ -20046,10 +19656,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
+      <c r="C197" t="n">
+        <v>4.52</v>
       </c>
       <c r="D197" t="n">
         <v>678</v>
@@ -20146,10 +19754,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C198" t="n">
+        <v>4.44</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -20246,10 +19852,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C199" t="n">
+        <v>4.44</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -20346,10 +19950,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C200" t="n">
+        <v>4.56</v>
       </c>
       <c r="D200" t="n">
         <v>514</v>
@@ -20446,10 +20048,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C201" t="n">
+        <v>0</v>
       </c>
       <c r="D201" t="n">
         <v>135</v>
@@ -20546,10 +20146,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C202" t="n">
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>745</v>
@@ -20646,10 +20244,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C203" t="n">
+        <v>4.89</v>
       </c>
       <c r="D203" t="n">
         <v>367</v>
@@ -20746,10 +20342,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C204" t="n">
+        <v>4.89</v>
       </c>
       <c r="D204" t="n">
         <v>367</v>
@@ -20846,10 +20440,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
+      <c r="C205" t="n">
+        <v>4.72</v>
       </c>
       <c r="D205" t="n">
         <v>691</v>
@@ -20946,10 +20538,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="C206" t="n">
+        <v>4.54</v>
       </c>
       <c r="D206" t="n">
         <v>396</v>
@@ -21046,10 +20636,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C207" t="n">
+        <v>4.7</v>
       </c>
       <c r="D207" t="n">
         <v>504</v>
@@ -21146,10 +20734,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
+      <c r="C208" t="n">
+        <v>4.73</v>
       </c>
       <c r="D208" t="n">
         <v>661</v>
@@ -21246,10 +20832,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
+      <c r="C209" t="n">
+        <v>4.73</v>
       </c>
       <c r="D209" t="n">
         <v>661</v>
@@ -21346,10 +20930,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C210" t="n">
+        <v>0</v>
       </c>
       <c r="D210" t="n">
         <v>726</v>
@@ -21446,10 +21028,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C211" t="n">
+        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>316</v>
@@ -21546,10 +21126,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C212" t="n">
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>812</v>
@@ -21646,10 +21224,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
+      <c r="C213" t="n">
+        <v>4.37</v>
       </c>
       <c r="D213" t="n">
         <v>840</v>
@@ -21746,10 +21322,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
+      <c r="C214" t="n">
+        <v>4.37</v>
       </c>
       <c r="D214" t="n">
         <v>840</v>
@@ -21846,10 +21420,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C215" t="n">
+        <v>4.93</v>
       </c>
       <c r="D215" t="n">
         <v>627</v>
@@ -21946,10 +21518,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C216" t="n">
+        <v>4.56</v>
       </c>
       <c r="D216" t="n">
         <v>426</v>
@@ -22046,10 +21616,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C217" t="n">
+        <v>4.56</v>
       </c>
       <c r="D217" t="n">
         <v>426</v>
@@ -22146,10 +21714,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C218" t="n">
+        <v>0</v>
       </c>
       <c r="D218" t="n">
         <v>342</v>
@@ -22246,10 +21812,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C219" t="n">
+        <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>435</v>
@@ -22346,10 +21910,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="C220" t="n">
+        <v>4.45</v>
       </c>
       <c r="D220" t="n">
         <v>613</v>
@@ -22446,10 +22008,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="C221" t="n">
+        <v>4.45</v>
       </c>
       <c r="D221" t="n">
         <v>613</v>
@@ -22546,10 +22106,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
+      <c r="C222" t="n">
+        <v>4.66</v>
       </c>
       <c r="D222" t="n">
         <v>304</v>
@@ -22646,10 +22204,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C223" t="n">
+        <v>4.96</v>
       </c>
       <c r="D223" t="n">
         <v>476</v>
@@ -22746,10 +22302,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C224" t="n">
+        <v>4.96</v>
       </c>
       <c r="D224" t="n">
         <v>476</v>
@@ -22846,10 +22400,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
+      <c r="C225" t="n">
+        <v>4.22</v>
       </c>
       <c r="D225" t="n">
         <v>441</v>
@@ -22946,10 +22498,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
+      <c r="C226" t="n">
+        <v>4.22</v>
       </c>
       <c r="D226" t="n">
         <v>441</v>
@@ -23046,10 +22596,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
+      <c r="C227" t="n">
+        <v>4.16</v>
       </c>
       <c r="D227" t="n">
         <v>234</v>
@@ -23146,10 +22694,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="C228" t="n">
+        <v>4.42</v>
       </c>
       <c r="D228" t="n">
         <v>564</v>
@@ -23246,10 +22792,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="C229" t="n">
+        <v>4.54</v>
       </c>
       <c r="D229" t="n">
         <v>424</v>
@@ -23346,10 +22890,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
+      <c r="C230" t="n">
+        <v>4.34</v>
       </c>
       <c r="D230" t="n">
         <v>446</v>
@@ -23446,10 +22988,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="C231" t="n">
+        <v>4.49</v>
       </c>
       <c r="D231" t="n">
         <v>206</v>
@@ -23546,10 +23086,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
+      <c r="C232" t="n">
+        <v>4.9</v>
       </c>
       <c r="D232" t="n">
         <v>396</v>
@@ -23646,10 +23184,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C233" t="n">
+        <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>505</v>
@@ -23746,10 +23282,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C234" t="n">
+        <v>4.39</v>
       </c>
       <c r="D234" t="n">
         <v>315</v>
@@ -23846,10 +23380,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C235" t="n">
+        <v>4.39</v>
       </c>
       <c r="D235" t="n">
         <v>315</v>
@@ -23946,10 +23478,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
+      <c r="C236" t="n">
+        <v>4.25</v>
       </c>
       <c r="D236" t="n">
         <v>191</v>
@@ -24046,10 +23576,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C237" t="n">
+        <v>4.7</v>
       </c>
       <c r="D237" t="n">
         <v>225</v>
@@ -24146,10 +23674,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
+      <c r="C238" t="n">
+        <v>4.66</v>
       </c>
       <c r="D238" t="n">
         <v>265</v>
@@ -24246,10 +23772,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C239" t="n">
+        <v>4.89</v>
       </c>
       <c r="D239" t="n">
         <v>301</v>
@@ -24346,10 +23870,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C240" t="n">
+        <v>0</v>
       </c>
       <c r="D240" t="n">
         <v>218</v>
@@ -24446,10 +23968,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C241" t="n">
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>654</v>
@@ -24546,10 +24066,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C242" t="n">
+        <v>0</v>
       </c>
       <c r="D242" t="n">
         <v>654</v>
@@ -24646,10 +24164,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C243" t="n">
+        <v>0</v>
       </c>
       <c r="D243" t="n">
         <v>312</v>
@@ -24746,10 +24262,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C244" t="n">
+        <v>0</v>
       </c>
       <c r="D244" t="n">
         <v>176</v>
@@ -24846,10 +24360,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
+      <c r="C245" t="n">
+        <v>4.81</v>
       </c>
       <c r="D245" t="n">
         <v>550</v>
@@ -24946,10 +24458,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
+      <c r="C246" t="n">
+        <v>4.81</v>
       </c>
       <c r="D246" t="n">
         <v>550</v>
@@ -25046,10 +24556,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
+      <c r="C247" t="n">
+        <v>4.53</v>
       </c>
       <c r="D247" t="n">
         <v>786</v>
@@ -25146,10 +24654,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
+      <c r="C248" t="n">
+        <v>4.53</v>
       </c>
       <c r="D248" t="n">
         <v>786</v>
@@ -25246,10 +24752,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
+      <c r="C249" t="n">
+        <v>4.4</v>
       </c>
       <c r="D249" t="n">
         <v>642</v>
@@ -25346,10 +24850,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C250" t="n">
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>82</v>
@@ -25446,10 +24948,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+      <c r="C251" t="n">
+        <v>4.55</v>
       </c>
       <c r="D251" t="n">
         <v>357</v>
@@ -25546,10 +25046,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+      <c r="C252" t="n">
+        <v>4.55</v>
       </c>
       <c r="D252" t="n">
         <v>357</v>
@@ -25646,10 +25144,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
+      <c r="C253" t="n">
+        <v>4.57</v>
       </c>
       <c r="D253" t="n">
         <v>502</v>
@@ -25746,10 +25242,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C254" t="n">
+        <v>0</v>
       </c>
       <c r="D254" t="n">
         <v>237</v>
@@ -25846,10 +25340,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C255" t="n">
+        <v>0</v>
       </c>
       <c r="D255" t="n">
         <v>315</v>
@@ -25946,10 +25438,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C256" t="n">
+        <v>4.44</v>
       </c>
       <c r="D256" t="n">
         <v>630</v>
@@ -26046,10 +25536,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C257" t="n">
+        <v>4.44</v>
       </c>
       <c r="D257" t="n">
         <v>630</v>
@@ -26146,10 +25634,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C258" t="n">
+        <v>4.61</v>
       </c>
       <c r="D258" t="n">
         <v>299</v>
@@ -26246,10 +25732,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C259" t="n">
+        <v>4.96</v>
       </c>
       <c r="D259" t="n">
         <v>182</v>
